--- a/Treinamento.xlsx
+++ b/Treinamento.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/projeto2_cd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FC1077-4E68-0846-A91F-690525A53933}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C64AE04-C0C6-4E42-B647-32CD76573FD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20680" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -22,86 +22,286 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="431">
   <si>
+    <t>#bdsp .. pretendo ir na feira comer um pastel hoje...
+se não chover !!</t>
+  </si>
+  <si>
+    <t>ruim de vim de metro q td dia quero comer pastel</t>
+  </si>
+  <si>
+    <t>queria comer
+hoje eu comi um pastel ! https://t.co/q5mfepyas0</t>
+  </si>
+  <si>
+    <t>talvez eu até me atrase pra reunião da loja, mas vou comer pastel antes de sair de casa</t>
+  </si>
+  <si>
+    <t>vulneravel e fragilizado precisando comprar um pastel</t>
+  </si>
+  <si>
+    <t>só um pastel de carne agora...</t>
+  </si>
+  <si>
+    <t>o cabelo da jiyoung nao ta verde pastel fui iludidahh https://t.co/7hopeaii3o</t>
+  </si>
+  <si>
+    <t>rt @xulyadias: aaaaaa queria um date comendo um pastel com guaracamp com minha plincesa</t>
+  </si>
+  <si>
+    <t>negaa, guardou um pastel pra mim❤</t>
+  </si>
+  <si>
+    <t>rt @freitaast: sdd do pastel da feirinha toda quinta 😥</t>
+  </si>
+  <si>
+    <t>meu desejo é ficar sarada/magra/gostosa, mas esses pacientes trazem coisas gostosas já de manhã
+café da manhã foi pastel 😋</t>
+  </si>
+  <si>
+    <t>rt @pxx_maaryy: to com muita vontade de comer pastel😋</t>
+  </si>
+  <si>
+    <t>@ferreira_duduz aqui em naviraí/ms tem de monte pastel por 1 real</t>
+  </si>
+  <si>
+    <t>@emyxbl toda vez que vou comer pastel lembro dela limpando minha boca toda agora pq eu me sujo toda comendo.. kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>to com muita vontade de comer pastel😋</t>
+  </si>
+  <si>
+    <t>acabei de descobrir vendo nilce e leon que tem festival brasileiro de pastel em vancouver mano @alyssonpatrici2</t>
+  </si>
+  <si>
+    <t>podia aparecer uma pessoa maravitchey e me levar pra comer pastel da feira com caldo de cana 🥰🥰♥️♥️♥️</t>
+  </si>
+  <si>
+    <t>só queria ir na escola pra depois sair e come pastel</t>
+  </si>
+  <si>
+    <t>@m_buonani @eloaise2 aaaaa temos que marcar nosso pastel dnv</t>
+  </si>
+  <si>
+    <t>rt @_artms: ws ta vendendo pastel 🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>barkurau é o nome de um bar em salvador q faz o pastel mais gostoso da minha vida
+a receita é envolta em misterios</t>
+  </si>
+  <si>
+    <t>vou brota ali na feira, pegar esse pastel 😋</t>
+  </si>
+  <si>
     <t>@rodrigocoelhoc @plweyne coelho, quero pastel de frango com catupiry. só avisando. 😁</t>
   </si>
   <si>
-    <t>tô na esperança de mamãe ir na feira e trazer meu pastel</t>
-  </si>
-  <si>
-    <t>eu coloco vários biscoitos fitness na bolsa mas tbm coloquei um pastel grandão com ketchup kkkk e quem disse q to afim de comer os biscoitos kk</t>
-  </si>
-  <si>
-    <t>o bom dia de hoje foi com um pastel e uma coca 💗</t>
-  </si>
-  <si>
-    <t>rt @ehdaora: que vontade de comer sushi e churrasco e hambúrguer e pizza e crepe e pastel e jantinha e parmegiana e batata frita e cachorro…</t>
-  </si>
-  <si>
-    <t>alguém pra ir comer um pastel na 14 amanhã?</t>
+    <t>vi um story e me deu vontade de comer pastel do reizinho</t>
+  </si>
+  <si>
+    <t>fui derrotado, mas pelo menos comi um pastel com caldo de cana</t>
+  </si>
+  <si>
+    <t>af que povo tóxico, ngm me convida pra ir comer um pastel na feira</t>
+  </si>
+  <si>
+    <t>a tia do pastel do pé do morro fica com mo neurose de desenrola mas um 😬😡 https://t.co/onkgkfkexi</t>
+  </si>
+  <si>
+    <t>tô nem entendendo essa vontade sendo que nem gosto de pastel, mas esse pastel de pizza da feira aqui da rua é muito bommmmm</t>
+  </si>
+  <si>
+    <t>@letsgolets me paga um pastel,sou tão bom amigo</t>
+  </si>
+  <si>
+    <t>hoje eu só precisava de um pastel de feira pra recarregar as energias</t>
+  </si>
+  <si>
+    <t>acordei mais cedo hoje só pra ir na feira comer pastel antes de ir trabalhar, bom dia</t>
+  </si>
+  <si>
+    <t>pastel é muito bom ze</t>
   </si>
   <si>
     <t>esqueci a carteira em casa e o mika trouxe dois pastel p mim 
 como reclamar desse cara</t>
   </si>
   <si>
-    <t>ia comer um pastel dps da academia kkk</t>
-  </si>
-  <si>
-    <t>acordei, comprei morango na feira e pastel de nutella. a tpm quer me vencer mas eu q vo vencer ela.</t>
-  </si>
-  <si>
-    <t>pega esse pastel pra trampa mec</t>
-  </si>
-  <si>
-    <t>comendo um pastel de queijo as 8h30 da manhã 👍</t>
-  </si>
-  <si>
-    <t>esses dias fui no rancho do pastel e cheguei a conclusão que o pastel da feira é bem melhor</t>
-  </si>
-  <si>
-    <t>q vontade de matar o fdp q encheu meu pastel de pimenta</t>
+    <t>feira sem pastel e caldo de cana não é feira hein #bdsp</t>
+  </si>
+  <si>
+    <t>vou agitar o pastel essa hora da manhã</t>
+  </si>
+  <si>
+    <t>pastel foi feito pra ter sabor pizza
+tentem mudar minha opinião https://t.co/m3qcmz5gak</t>
+  </si>
+  <si>
+    <t>eu acho mt louco como o conceito burrito, churros e outras comidas chegaram e ficaram no cotidiano do 1o mundo, mas a padaria, o churrasco na porta do bar, o carreteiro, o pastel, o pão de queijo, o queijo meia cura etc...nao estão nem perto de serem lembrados por eles</t>
+  </si>
+  <si>
+    <t>rt @laressa: belo horizonte 
+minha amiga pagou o pastel
+- miga quanto custou?
+- não amiga relaxa
+- sério, quanto custou? to curiosa pra sab…</t>
+  </si>
+  <si>
+    <t>queria um pastel de queijo</t>
+  </si>
+  <si>
+    <t>minha gente eu odeio pastel</t>
+  </si>
+  <si>
+    <t>meu pai comprou um pastel tão gostoso mas o pedro comeu quase todo 😔🙄</t>
+  </si>
+  <si>
+    <t>@mlirowski não sei em que mundo eu to te devendo pastel, agora ta falando que eu to devendo dois você é louco</t>
+  </si>
+  <si>
+    <t>@ywalter aquele pastel é vida</t>
+  </si>
+  <si>
+    <t>pastel do ifood chegou só agr e eu e a camille nunca comemos dois pasteis tão rápido na vida 🤤</t>
+  </si>
+  <si>
+    <t>queria comer um pastel de quinta na rdf</t>
+  </si>
+  <si>
+    <t>queria sair pra comer pastel</t>
+  </si>
+  <si>
+    <t>rt @soueupaulla: eu: bom dia, um pastel de frango
+yasmim: https://t.co/wm2xgicokf</t>
+  </si>
+  <si>
+    <t>comendo uma maçã fingindo ser um pastel com bastante vinagrete, bom dia quinta</t>
+  </si>
+  <si>
+    <t>fui fritar pastel queimei minha mão</t>
+  </si>
+  <si>
+    <t>o ceasa é uma das coisas que mais me traz lembranças boas,quando criança era o melhor rolê com meu pai, o melhor pastel de brasília....</t>
+  </si>
+  <si>
+    <t>se tem uma coisa q posso criticar eh q achei a foto da promo de liar meio nada a ver c a musica qnd vc ve as asas de anjo as flechas e o fundo c cores pastel a gente pensa numa musica mais soft e triste e na vdd eh mo latina upbeat n era msm oq eu esperava #liarandshamelessoutnow</t>
+  </si>
+  <si>
+    <t>rt @leiteadpn: encontrei 2 miúdos num café a lutar por um pastel de nata. tirei-lhes o pastel e comi-o. perguntaram-me se podia tomar conta…</t>
+  </si>
+  <si>
+    <t>rt @ramirolozi: tô com vontade de comer um pastel e tomar um caldo de cana</t>
+  </si>
+  <si>
+    <t>@joomede79149855 tipo uma pastel e um caldo de cana   da feira , concordo com vc</t>
+  </si>
+  <si>
+    <t>a ju me ligou pra perguntar que hrs eu ia comer pastel kkkkkkkkk eu amo</t>
+  </si>
+  <si>
+    <t>tentando entender pq eu comprei pipoca doce no centro da cidade e fui numa barraca de pastel da babá do gustavo pra colocar leite condensado no meu sonho às 3h da manhã</t>
+  </si>
+  <si>
+    <t>esse pastel de nata ( que eu jurava que se chama a pastel de belém) estava delicioso, meu deeeeus!! #docesportugueses</t>
+  </si>
+  <si>
+    <t>rt @laranjinhass: não há tristeza q um pastel de frango com catupiry não faça desaparecer</t>
+  </si>
+  <si>
+    <t>quase dez horas da manhã
+eu e a bahia: vamo comer pastel?</t>
+  </si>
+  <si>
+    <t>se eu não tivesse comprado aquele pastel em abril de 2014 eu teria dinheiro agora</t>
+  </si>
+  <si>
+    <t>era só um pastel de carne com queijo do trevo 😋</t>
+  </si>
+  <si>
+    <t>@vitorzemlenoi slc com essa taxa eu como 2 pastel, de boa, valeu!!!! kkkkkkkk mais tarde vejo se tem algo no ifood</t>
+  </si>
+  <si>
+    <t>rt @mylenaoak: ai, era só um pastel grandão recheadão, uma batata frita turbinada, e por fim, 5 trufas super recheadas</t>
+  </si>
+  <si>
+    <t>se tivesse pastel com maconha se chamaria pastonha ?</t>
+  </si>
+  <si>
+    <t>como ser fit se você acorda e já vem o cheirão de pastel da feira na sua cara?</t>
+  </si>
+  <si>
+    <t>@alinnefanelli quero ver o pastel da feira com um caldin de cana geladinho. até onde vai sua força? kkkkkkk</t>
+  </si>
+  <si>
+    <t>vou flr cm vc lá no pastel no sábado — mds e quem e vc? https://t.co/iqmlxujfy3</t>
+  </si>
+  <si>
+    <t>@paulxbr_ menina ontem vc falou do pastel eu lembrei na hora do açaí, que bad vei, me arrepiei todinha na hora só de imaginar kkkkkkkk</t>
+  </si>
+  <si>
+    <t>@joaovitorlopc pode ser um pastel de terça feira que tem no cond da minha mamis rsrs</t>
+  </si>
+  <si>
+    <t>e tipo estou esgotado po pq meu pai eh um morto de fome amingua poxa custava deixar o meu pastel p mim sendo q é meu ??? só pq eu tava dormindo ele tinha q comer ??? vacilo dms cara https://t.co/k1cpyypso5</t>
+  </si>
+  <si>
+    <t>só queria um pastel de queijo 😞</t>
+  </si>
+  <si>
+    <t>alguém me vê um pastel do oriente faz o favor</t>
+  </si>
+  <si>
+    <t>meu chegou agora com um pastel de feira pra tomar café, eu amo esse homem</t>
+  </si>
+  <si>
+    <t>rt @ehdaora: que vontade de comer sushi e churrasco e hambúrguer e pizza e crepe e pastel e jantinha e parmegiana e batata frita e cachorro…</t>
+  </si>
+  <si>
+    <t>boa noite?
+to chegando em casa agora 
+eu deveria ter trazido pão ou pastel de feira para os demais moradores? — as vezes eu trago pao pro pessoal aqui de casa mas nem sempre https://t.co/a46xzwthwk</t>
+  </si>
+  <si>
+    <t>sou obrigada a comer um pastel  de queijo, vou ir comer sozinha mesmo azar</t>
+  </si>
+  <si>
+    <t>@badgirlvivix amiga estou pobre .....meu aniversário é próxima semana.....tem presente melhor que pastel?</t>
+  </si>
+  <si>
+    <t>era só um pastel na feira domingo</t>
+  </si>
+  <si>
+    <t>rt @luuuissjoosee: pastel de brócolis da espaço mix, pq pisas tanto??</t>
   </si>
   <si>
     <t>@_magrela__ amiga, você tá fodida, eu pelo menos posso dormir... se bem que eu tava querendo ir na feira comer um pastel</t>
   </si>
   <si>
-    <t>eu só queria um pastel com caldo de cana 😅💓</t>
-  </si>
-  <si>
-    <t>vim na uf só pra matar minha sdd do pastel daqui</t>
-  </si>
-  <si>
-    <t>queria comer um pastel de quinta na rdf</t>
-  </si>
-  <si>
-    <t>rt @_artms: ws ta vendendo pastel 🤣🤣🤣</t>
-  </si>
-  <si>
-    <t>só hoje eu tive vontade de comer: pão com patê de atum, salgadinho de festa, frango com curry ou qualquer coisa relacionado a comida indiana, pavê, bolo de cenoura e pastel. é isto.</t>
-  </si>
-  <si>
-    <t>eu salivo um pastel tem semanas po</t>
-  </si>
-  <si>
-    <t>rt @martiinsjackson: larissa disse que queria pastel, fechou a loja dela e eu esqueci de levar 👍🤦🏼‍♂️</t>
-  </si>
-  <si>
-    <t>alfredo dormiu no chão e to sozinha esperando nosso pastel chinês</t>
-  </si>
-  <si>
-    <t>esse pastel de nata ( que eu jurava que se chama a pastel de belém) estava delicioso, meu deeeeus!! #docesportugueses</t>
-  </si>
-  <si>
-    <t>o #bdsp mostrando feiras, já vem aquela vontade de comer aquele pastel.</t>
-  </si>
-  <si>
-    <t>rt @tuiterdaisabela: queria comer pastel e caldo de cana, bom dia</t>
-  </si>
-  <si>
-    <t>se tem uma coisa q posso criticar eh q achei a foto da promo de liar meio nada a ver c a musica qnd vc ve as asas de anjo as flechas e o fundo c cores pastel a gente pensa numa musica mais soft e triste e na vdd eh mo latina upbeat n era msm oq eu esperava #liarandshamelessoutnow</t>
-  </si>
-  <si>
-    <t>pensando no pastel do kubo amanhã antes de entrar no barco pra ir pra ilha haha</t>
+    <t>rt @rangelagain: @miudobr o pastel tb 🤣</t>
+  </si>
+  <si>
+    <t>hoje tem feira, minha namorada come 5 pastel 4 espetinho, 3 creep e no final um docinho “3 churros” vendo aquela carinha nem parece que come até pedra</t>
+  </si>
+  <si>
+    <t>aquele momento que a gente estuda no annes, e tu compra um pastel e vem gente do outro lado da escola só pra te pedir um pedaço afff https://t.co/fvlock7pbl</t>
+  </si>
+  <si>
+    <t>@fwuckit da próxima compro um pastel k</t>
+  </si>
+  <si>
+    <t>9:30 da manhã eu e os meus colegas pedimos pastel p tomar café</t>
+  </si>
+  <si>
+    <t>queria comer pastel e caldo de cana, bom dia</t>
+  </si>
+  <si>
+    <t>comi um pastel do justão ontem que não me fez muito bem viu</t>
+  </si>
+  <si>
+    <t>rt @pastelzinhooo: mano queria conhecer algm assim seriao, pensa, conhecer algm q ama pastel tanto qnt eu irmaaaooo https://t.co/baqpocl7dm</t>
+  </si>
+  <si>
+    <t>quem discordar nunca comeu pastel direito
+ https://t.co/inaiaxgfbr https://t.co/kpl0yxbi4t</t>
   </si>
   <si>
     <t>[5/9 00:37]: e na vdd eu nem gosto muito de pastel
@@ -109,305 +309,76 @@
 fodase quem não gosta de pastel??????????</t>
   </si>
   <si>
-    <t>amanhã minha mãe vai comer pastel e eu não vou 😩</t>
+    <t>#bdsp em #jundiaí tem o melhor pastel de feira do brasil</t>
+  </si>
+  <si>
+    <t>sempre que saio do treino apetece-me pastel de nata</t>
+  </si>
+  <si>
+    <t>poxa era só um pastel</t>
+  </si>
+  <si>
+    <t>eu falando que preciso me alimentar melhor e como pastel de cafe da manhã, ai eu sei la ne...</t>
+  </si>
+  <si>
+    <t>eu totalmente estressada e puta com vida 😡😡😡
+comendo pastel de banana com leite condensado 🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>que vontade de passar na feira pra comer pastel hj</t>
+  </si>
+  <si>
+    <t>@g1sptv bom dia. ir numa feira de rua, a barraca de pastel é parada obrigatória, não tem como deixar de comer e tomar um caldo de cana, combinação perfeita!!! #bdsp https://t.co/so6pazznoq</t>
+  </si>
+  <si>
+    <t>#bdsp pastel de feira com alunos....tudo de bom. vem @rodrigobocardi  e @gloria_vanique comer com a gente. https://t.co/yhmwqiuckd</t>
+  </si>
+  <si>
+    <t>peguei o último pastel de carne https://t.co/u8bjptsaz7</t>
+  </si>
+  <si>
+    <t>tfw ngm pra dormir cmg na sexta, acordar no sábado as 10 ir na feirinha aqui do lado comer uns pastel de feira delicioso :(</t>
   </si>
   <si>
     <t>@g1sptv bom dia. feiras de rua tem que ter "pastel e caldo de cana" @rodrigobocardi...uma combinação perfeita como o arroz e feijão! #bdsp https://t.co/tn4hqjplle</t>
   </si>
   <si>
-    <t>@g1sptv bom dia. ir numa feira de rua, a barraca de pastel é parada obrigatória, não tem como deixar de comer e tomar um caldo de cana, combinação perfeita!!! #bdsp https://t.co/so6pazznoq</t>
-  </si>
-  <si>
-    <t>essa hr da manhã eu comendo pastel c caldo ❤</t>
-  </si>
-  <si>
-    <t>eu queria muito um pastel de calabresa com queijo e caldo de cana</t>
-  </si>
-  <si>
-    <t>vontade de comer pastel com muita massa</t>
-  </si>
-  <si>
-    <t>olhando pra barraquinha de pastel e crepe. senhor, serase q como?</t>
-  </si>
-  <si>
-    <t>rt @xulyadias: aaaaaa queria um date comendo um pastel com guaracamp com minha plincesa</t>
-  </si>
-  <si>
-    <t>vontade de comer pastel mas não posso😫</t>
-  </si>
-  <si>
-    <t>rt @rehdiaaas: to aq na tia bica c a familia olhando jogo, e fazendo pastel caseiro 🤤🤤🤤</t>
-  </si>
-  <si>
-    <t>@letsgolets me paga um pastel,sou tão bom amigo</t>
-  </si>
-  <si>
-    <t>@emanoel1953 nossa que pergunta original...!!!! dá até sono. https://t.co/znj0gi7xkr</t>
-  </si>
-  <si>
-    <t>@jovempannews ainda dão espaço pra essa tia do pastel de vento?</t>
-  </si>
-  <si>
-    <t>vi um story e me deu vontade de comer pastel do reizinho</t>
+    <t>eu coloco vários biscoitos fitness na bolsa mas tbm coloquei um pastel grandão com ketchup kkkk e quem disse q to afim de comer os biscoitos kk</t>
+  </si>
+  <si>
+    <t>e nem pastel https://t.co/smjg8xafar</t>
   </si>
   <si>
     <t>enquanto isso, no multi-verso onde leo do pastel é colorado e médico:
 rt @leodopastel não pude acompanhar o nosso colorado hoje, pois estava de plantão médico... podem me dizer de quanto foi a epopeia colorada diante do recém mudado de comando cruzeiro, ainda fragilizado?</t>
   </si>
   <si>
-    <t>acabei q tem pastel do lado da minha facul por 2 reais sinceramente onde eu tava período passado??</t>
-  </si>
-  <si>
-    <t>pastel da fasa é de respeito</t>
-  </si>
-  <si>
-    <t>@iviescopel caaaaaaaaaaaaaara! hj é quinta! dia do caldo e pastel na barbosa tower!</t>
-  </si>
-  <si>
-    <t>amanhã vou na feira aqui da esquina só pra comer pastel..</t>
-  </si>
-  <si>
-    <t>não vejo a hora de chegar amanhã e eu comer pastel</t>
-  </si>
-  <si>
-    <t>acordei com uma vontade de comer pastel 🤤</t>
-  </si>
-  <si>
-    <t>eu acho mt louco como o conceito burrito, churros e outras comidas chegaram e ficaram no cotidiano do 1o mundo, mas a padaria, o churrasco na porta do bar, o carreteiro, o pastel, o pão de queijo, o queijo meia cura etc...nao estão nem perto de serem lembrados por eles</t>
-  </si>
-  <si>
-    <t>auge comer pastel e começar a chover e depois a chuva piorar e ter q sair correndo</t>
-  </si>
-  <si>
-    <t>alguém me vê um pastel do oriente faz o favor</t>
-  </si>
-  <si>
-    <t>vou degustar um pastel na feira do a.l ali</t>
-  </si>
-  <si>
-    <t>amanhã tem pastel na fábrica</t>
-  </si>
-  <si>
-    <t>pai comprou um pastel e uma coca pra mim ontem ❤</t>
-  </si>
-  <si>
-    <t>#cadêachave - saímos de casa pra comer pastel - ep. 1394
-https://t.co/zflrolea9c https://t.co/fgv9x1huw7</t>
-  </si>
-  <si>
-    <t>@nachoscaoticus keria um pastel agora :(</t>
-  </si>
-  <si>
-    <t>to com muita vontade de comer pastel😋</t>
+    <t>só hoje eu tive vontade de comer: pão com patê de atum, salgadinho de festa, frango com curry ou qualquer coisa relacionado a comida indiana, pavê, bolo de cenoura e pastel. é isto.</t>
+  </si>
+  <si>
+    <t>estou tao pastel, quero ir embora</t>
+  </si>
+  <si>
+    <t>o que os brasileiros que vão me receber encomendaram:
+- massa de pastel 
+- ypioca 
+- havaianas 
+- suco tang de laranja (para comer o pózinho.)</t>
   </si>
   <si>
     <t>quem sou eu fritando pastel nesse exato momento kkkkkk</t>
   </si>
   <si>
-    <t>rt @bwrntdiee: aí só um piercing, um pastel e caldo de cana pra eu ficar feliz</t>
-  </si>
-  <si>
-    <t>rt @freitaast: sdd do pastel da feirinha toda quinta 😥</t>
-  </si>
-  <si>
-    <t>eu só tenho 5 reais e hj tem feira, fiquei naquela "compro um pastel ou como bisnaguinha no escritório?". decidi economizar. chego no escritório, a porta que dá acesso a cozinha está trancada...</t>
-  </si>
-  <si>
-    <t>eu com um cigarro na boca, fritando pastel e pensando "tô nem aí, o que mata é o aquecimento global"</t>
-  </si>
-  <si>
-    <t>@guilhotinaaa vamo marcar um dia de comer um pastel em sao carlos</t>
-  </si>
-  <si>
-    <t>meu primo é um pretão foda e tava namorando com uma pastel aí.
-ela foi racista na frente dele e ele largou ela.
-agora tá namorando una mina do olho d'água (indígena) que fez de tudo por ele. 
-vi eles de mãozinha dada hoje e tô sorridente.
-ele sofreu na mão da pastelzinha lá...</t>
-  </si>
-  <si>
-    <t>rt @sadsharkz: se tivesse pastel com maconha se chamaria pastonha ?</t>
-  </si>
-  <si>
-    <t>alegria do dia é a tia do pastel :)</t>
-  </si>
-  <si>
-    <t>rt @soueupaulla: eu: bom dia, um pastel de frango
-yasmim: https://t.co/wm2xgicokf</t>
-  </si>
-  <si>
-    <t>rt @heydiane_: pqp vontade de um pastel de queijo e um caldo de cana</t>
-  </si>
-  <si>
-    <t>podia aparecer uma pessoa maravitchey e me levar pra comer pastel da feira com caldo de cana 🥰🥰♥️♥️♥️</t>
-  </si>
-  <si>
-    <t>ruim de vim de metro q td dia quero comer pastel</t>
-  </si>
-  <si>
-    <t>agora sim comendo um pastel de carne com uma ks de guaraná</t>
-  </si>
-  <si>
-    <t>rt @laranjinhass: não há tristeza q um pastel de frango com catupiry não faça desaparecer</t>
-  </si>
-  <si>
-    <t>#bdsp pastel de feira com alunos....tudo de bom. vem @rodrigobocardi  e @gloria_vanique comer com a gente. https://t.co/yhmwqiuckd</t>
-  </si>
-  <si>
-    <t>personalize suas capinhas ou use capinhas de uma cor pastel https://t.co/k5wgso3qrt</t>
-  </si>
-  <si>
-    <t>vou agitar o pastel essa hora da manhã</t>
-  </si>
-  <si>
-    <t>sempre que saio do treino apetece-me pastel de nata</t>
-  </si>
-  <si>
-    <t>pastel do ifood chegou só agr e eu e a camille nunca comemos dois pasteis tão rápido na vida 🤤</t>
-  </si>
-  <si>
-    <t>queria o pastel de ontem e depois ficar encangada em ed :/</t>
-  </si>
-  <si>
-    <t>nem gosto de camarão e comi um pastel inteiro c isso ontem</t>
-  </si>
-  <si>
-    <t>9 hrs da manhã e eu já comi salgadinho, pastel, doce e tomei uma lata de red bull</t>
-  </si>
-  <si>
-    <t>feira sem pastel e caldo de cana não é feira hein #bdsp</t>
-  </si>
-  <si>
-    <t>hoje tem feira, minha namorada come 5 pastel 4 espetinho, 3 creep e no final um docinho “3 churros” vendo aquela carinha nem parece que come até pedra</t>
-  </si>
-  <si>
-    <t>boa noite?
-to chegando em casa agora 
-eu deveria ter trazido pão ou pastel de feira para os demais moradores? — as vezes eu trago pao pro pessoal aqui de casa mas nem sempre https://t.co/a46xzwthwk</t>
-  </si>
-  <si>
-    <t>rt @ramirolozi: tô com vontade de comer um pastel e tomar um caldo de cana</t>
-  </si>
-  <si>
-    <t>to pior que pastel de feira no domingo</t>
-  </si>
-  <si>
-    <t>rt @pxx_maaryy: to com muita vontade de comer pastel😋</t>
-  </si>
-  <si>
-    <t>@nathdudaa sábado você paga o pastel,não é possível</t>
-  </si>
-  <si>
-    <t>e eu e as minhas amigas que levamos um pote de pastel pra bienal kkkkkkkj</t>
-  </si>
-  <si>
-    <t>@espeonnn dps dessa vo pro rei do pastel pedir aquele pastel de carne com açucar e uma brahma</t>
-  </si>
-  <si>
-    <t>rt @alinnefanelli: oi, meu nome é alinne e hoje eu resisti ao pastel de quarta-feira na firma.</t>
-  </si>
-  <si>
-    <t>queria comer pastel e caldo de cana, bom dia</t>
-  </si>
-  <si>
-    <t>paguei por 100g de pastel na central e a mulher me deu 200g
-queria agradecer não só a deus mas também a jesus</t>
-  </si>
-  <si>
-    <t>pastel de cartola? estranho mas quero provar</t>
-  </si>
-  <si>
-    <t>rt @mylenaoak: ai, era só um pastel grandão recheadão, uma batata frita turbinada, e por fim, 5 trufas super recheadas</t>
-  </si>
-  <si>
-    <t>queria um pastel de frango com catupiry plenas 8 da manha</t>
-  </si>
-  <si>
-    <t>poxa era só um pastel</t>
-  </si>
-  <si>
-    <t>tô nesse exato momento sentado na frente de uma padaria pensando em comprar pão de queijo e pastel folhado aaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>eu sonhei que pintava meu cabelp de rosa pastel e ele ficava lindo demais</t>
-  </si>
-  <si>
-    <t>hoje é dia de pastel ❤️</t>
-  </si>
-  <si>
-    <t>queria comer
-hoje eu comi um pastel ! https://t.co/q5mfepyas0</t>
-  </si>
-  <si>
-    <t>e nem pastel https://t.co/smjg8xafar</t>
-  </si>
-  <si>
-    <t>era só um pastel na feira domingo</t>
-  </si>
-  <si>
-    <t>vou ali na feira comprar um pastel com caldo de cana</t>
-  </si>
-  <si>
-    <t>pastel de almoço hj</t>
-  </si>
-  <si>
-    <t>#bdsp em #jundiaí tem o melhor pastel de feira do brasil</t>
-  </si>
-  <si>
-    <t>rt @dias_mateus23: gente vcs também já tiveram a sensação de estarem totalmente sozinhos?, mas eu tô falando em relação a tudo, amizade, en…</t>
-  </si>
-  <si>
-    <t>tô devendo um pastel pro joão mais nem aconteceu ainda pra mim paga ele</t>
-  </si>
-  <si>
-    <t>eu logo de manhã comendo pastel de camarão, certeza que vou passar mal</t>
-  </si>
-  <si>
-    <t>i'm at pastel do japonês -  feira livre in são paulo, sp https://t.co/zkzfkryf9x</t>
-  </si>
-  <si>
-    <t>encontrei 2 miúdos num café a lutar por um pastel de nata. tirei-lhes o pastel e comi-o. perguntaram-me se podia tomar conta deles. percebi logo que eram socialistas</t>
-  </si>
-  <si>
-    <t>@alinnefanelli toda semana?! vocês não querem um estagiário? eu pego café pra todo mundo e o pastel vai chegar inteiro até vocês! hahaha</t>
-  </si>
-  <si>
-    <t>pastel foi feito pra ter sabor pizza
-tentem mudar minha opinião https://t.co/m3qcmz5gak</t>
-  </si>
-  <si>
-    <t>era só um pastel de queijo c caldo de cana 😤🤤</t>
-  </si>
-  <si>
-    <t>ontem a ana compro pastel p mim sem eu pedi. serio vcs qerem namorada +pfta</t>
-  </si>
-  <si>
-    <t>tudo que eu comi o dia todo hj foi um pastel com suco e to aqui com gastura em plena madrugada querendo vomitar</t>
-  </si>
-  <si>
-    <t>meu desejo é ficar sarada/magra/gostosa, mas esses pacientes trazem coisas gostosas já de manhã
-café da manhã foi pastel 😋</t>
-  </si>
-  <si>
-    <t>@mlirowski não sei em que mundo eu to te devendo pastel, agora ta falando que eu to devendo dois você é louco</t>
-  </si>
-  <si>
-    <t>resumo comi um pastel de forno recheado de vento quentinho com um suco de maracujá e resolveu minha fome</t>
-  </si>
-  <si>
-    <t>eu só queria um pastel</t>
-  </si>
-  <si>
-    <t>@laurivieri eu espero do fundo do coração que o almoço de sabado seja pastel com molho de pimenta</t>
-  </si>
-  <si>
-    <t>depois que eu sair do exame quero comer pastel e churros</t>
-  </si>
-  <si>
-    <t>só pelo meu pastel😋 https://t.co/putfm6yfj4</t>
-  </si>
-  <si>
-    <t>acordei mais cedo hoje só pra ir na feira comer pastel antes de ir trabalhar, bom dia</t>
+    <t>00:31 e eu indo fazer pastel</t>
+  </si>
+  <si>
+    <t>queria um esmalte amarelo pastel mas eu não acho em lugar nenhum ;-;</t>
+  </si>
+  <si>
+    <t>esses dias fui no rancho do pastel e cheguei a conclusão que o pastel da feira é bem melhor</t>
+  </si>
+  <si>
+    <t>pastel com pimenta pq tão bom?</t>
   </si>
   <si>
     <t>quinta-feira é dia de cardápio bem saudável e variado no anfitrião restaurante, a gente se encontra por lá. 
@@ -421,278 +392,160 @@
 ✅ ovo... https://t.co/6za5khtois</t>
   </si>
   <si>
-    <t>@ohamikchi eu super queira um pastel a todo momento da minha vida q</t>
+    <t>será q a amanda tá em casa pensando no pastel de camarão????</t>
+  </si>
+  <si>
+    <t>@espeonnn dps dessa vo pro rei do pastel pedir aquele pastel de carne com açucar e uma brahma</t>
+  </si>
+  <si>
+    <t>todo mundo trouxe pastel hj</t>
+  </si>
+  <si>
+    <t>comendo um pastel de queijo as 8h30 da manhã 👍</t>
+  </si>
+  <si>
+    <t>9 hrs da manhã e eu já comi salgadinho, pastel, doce e tomei uma lata de red bull</t>
+  </si>
+  <si>
+    <t>acabei q tem pastel do lado da minha facul por 2 reais sinceramente onde eu tava período passado??</t>
+  </si>
+  <si>
+    <t>@nachoscaoticus keria um pastel agora :(</t>
+  </si>
+  <si>
+    <t>não vejo a hora de chegar amanhã e eu comer pastel</t>
+  </si>
+  <si>
+    <t>indo comer pastel como se não fosse foder minha dieta https://t.co/xqsx4u2ben</t>
+  </si>
+  <si>
+    <t>ia comer um pastel dps da academia kkk</t>
+  </si>
+  <si>
+    <t>alfredo dormiu no chão e to sozinha esperando nosso pastel chinês</t>
+  </si>
+  <si>
+    <t>amanhã minha mãe vai comer pastel e eu não vou 😩</t>
+  </si>
+  <si>
+    <t>@dakrparadises cala boca tu tem q come pastel e me pagar sorvete</t>
+  </si>
+  <si>
+    <t>trabalhar pra ter festa do pastel com a pessoa q eu gosto https://t.co/ifhdvcztvo</t>
+  </si>
+  <si>
+    <t>rt @_souacarol_: malta aqui está a questão do século 
+o pastel de nata (aka a nata) come-se:
+à dentada - retweet
+à colher - fav</t>
+  </si>
+  <si>
+    <t>sem contar no pastel de camarão 💙</t>
+  </si>
+  <si>
+    <t>hoje é dia de pastel ❤️</t>
+  </si>
+  <si>
+    <t>@igorsenna97 eu paguei 13 num pastel minúsculo,mas só pq tava com fome mesmo kkkkk tudo muito caro né</t>
+  </si>
+  <si>
+    <t>amanhã vou na feira aqui da esquina só pra comer pastel..</t>
+  </si>
+  <si>
+    <t>@1640ginnie está com o que? estou bem!!!!! com sono e calor, mas bem. já sim, pastel tudo na vida. e tu?</t>
+  </si>
+  <si>
+    <t>comi pastel com chá</t>
+  </si>
+  <si>
+    <t>acordei, comprei morango na feira e pastel de nutella. a tpm quer me vencer mas eu q vo vencer ela.</t>
+  </si>
+  <si>
+    <t>@acleverdude @bolsonarosp eles não atacam o brasil,  atacam o pastel de bosta que está na presidência</t>
+  </si>
+  <si>
+    <t>queria estar comendo pastel kkk</t>
+  </si>
+  <si>
+    <t>bom dia meus degenerados, que o dia de vocês seja dahora e é isso. me mudo pra londrina hj, (alô londrinenses chama noix) dá um elogio e um chero na sua morena, fala que ela eh gostosa e chama pra comer pastel. enfim, um bom dia</t>
+  </si>
+  <si>
+    <t>essa hr da manhã eu comendo pastel c caldo ❤</t>
+  </si>
+  <si>
+    <t>07:30 da manhã e eu queria tomar um copo de coca e comer um pastel de bauru</t>
+  </si>
+  <si>
+    <t>@lscorreaa mas vai te lava aubsusbsusbsus passa na padaria e compra pastel eu gosto</t>
+  </si>
+  <si>
+    <t>rt @craiskc: taporra lagartixa tu bebeu água pra caralho https://t.co/jgfx61krvf</t>
+  </si>
+  <si>
+    <t>lucas vai salvar no pastel hoje, tava na hora já 😁</t>
+  </si>
+  <si>
+    <t>na vontade de um pastel</t>
+  </si>
+  <si>
+    <t>@_querumcafe eu lavo, me pague um pastel q ja ta massa</t>
+  </si>
+  <si>
+    <t>e eu e as minhas amigas que levamos um pote de pastel pra bienal kkkkkkkj</t>
+  </si>
+  <si>
+    <t>alegria do dia é a tia do pastel :)</t>
+  </si>
+  <si>
+    <t>ontem a ana compro pastel p mim sem eu pedi. serio vcs qerem namorada +pfta</t>
+  </si>
+  <si>
+    <t>rt @ilovepadarias: pastel de ninho e nutella https://t.co/fvnrpjrfwm</t>
+  </si>
+  <si>
+    <t>eu só queria o meu pastel</t>
+  </si>
+  <si>
+    <t>só pelo meu pastel😋 https://t.co/putfm6yfj4</t>
+  </si>
+  <si>
+    <t>thayná ontem pagou pastel pra mim😍😍😍</t>
+  </si>
+  <si>
+    <t>queria comer um pastel da feira 🤦‍♂️😩</t>
   </si>
   <si>
     <t>@dezzajp pq todos os outros estão com cara de pastel? eles sabiam? pq ninguém se desesperou? eu já estaria gritando com a produção pra tirarem os meninos de lá</t>
   </si>
   <si>
-    <t>rt @ilovepadarias: pastel de ninho e nutella https://t.co/fvnrpjrfwm</t>
-  </si>
-  <si>
-    <t>tfw ngm pra dormir cmg na sexta, acordar no sábado as 10 ir na feirinha aqui do lado comer uns pastel de feira delicioso :(</t>
-  </si>
-  <si>
-    <t>@m_buonani @eloaise2 aaaaa temos que marcar nosso pastel dnv</t>
-  </si>
-  <si>
-    <t>rt @leiteadpn: encontrei 2 miúdos num café a lutar por um pastel de nata. tirei-lhes o pastel e comi-o. perguntaram-me se podia tomar conta…</t>
+    <t>@alinnefanelli toda semana?! vocês não querem um estagiário? eu pego café pra todo mundo e o pastel vai chegar inteiro até vocês! hahaha</t>
+  </si>
+  <si>
+    <t>mais um dia acordando sem fome, ontem eu comi 2 coxinhas tipo as do bugao e 1/2 pastel, e acordei sem fome hoje dnv 😫</t>
+  </si>
+  <si>
+    <t>vou comer um pastel de feira 😋</t>
+  </si>
+  <si>
+    <t>noite do pastel c os amigos, ri até a barriga doer, qd eu falo q n troco por nd, é disso q eu m refiro... ❤️</t>
   </si>
   <si>
     <t>sério, o de eu arranjo um pastel e uma pepsi a esta hora?</t>
   </si>
   <si>
-    <t>@vitorzemlenoi slc com essa taxa eu como 2 pastel, de boa, valeu!!!! kkkkkkkk mais tarde vejo se tem algo no ifood</t>
-  </si>
-  <si>
-    <t>o ceasa é uma das coisas que mais me traz lembranças boas,quando criança era o melhor rolê com meu pai, o melhor pastel de brasília....</t>
-  </si>
-  <si>
-    <t>sábado vou sair pra comer pastel com caldo de cana</t>
-  </si>
-  <si>
-    <t>mkkkkkkkkkkkkkk hj to so esse cara bebo aqui no pastel</t>
-  </si>
-  <si>
-    <t>hora de sair da cama pois tenho 1 pastel de chocolate e coca pra tomar de café</t>
-  </si>
-  <si>
-    <t>melhor pastel de padaria disparado é o da bracarense</t>
-  </si>
-  <si>
-    <t>meu chegou agora com um pastel de feira pra tomar café, eu amo esse homem</t>
-  </si>
-  <si>
-    <t>rafa foi lá fora comprar pastel e caldo de cana pra gente</t>
-  </si>
-  <si>
-    <t>@cacagil123 @cassiisblack tem um molho verde na minha cidade em uma barraca de pastel, mas n é igual o de primavera</t>
-  </si>
-  <si>
-    <t>rt @luuuissjoosee: pastel de brócolis da espaço mix, pq pisas tanto??</t>
-  </si>
-  <si>
-    <t>........ hoje sonhei que tinha comido um pastel que tinha carne e eu não sabia.............. o sonho acabou aí</t>
-  </si>
-  <si>
-    <t>queria um esmalte amarelo pastel mas eu não acho em lugar nenhum ;-;</t>
-  </si>
-  <si>
-    <t>agitamos um pastel no escuro mesmo 😂😋</t>
-  </si>
-  <si>
-    <t>como eu gosto de pastel</t>
-  </si>
-  <si>
-    <t>minha gente eu odeio pastel</t>
-  </si>
-  <si>
-    <t>meu pai comprou um pastel tão gostoso mas o pedro comeu quase todo 😔🙄</t>
-  </si>
-  <si>
-    <t>@nandinh_ps eu não tenho nem amigos imagine que levam pastel kkk</t>
-  </si>
-  <si>
-    <t>07:30 da manhã e eu queria tomar um copo de coca e comer um pastel de bauru</t>
-  </si>
-  <si>
-    <t>depois de sexta é só um pastel e um caldo de cana, que fica novo</t>
-  </si>
-  <si>
-    <t>ow mano desenhar com giz pastel é mó fita</t>
-  </si>
-  <si>
-    <t>se eu não tivesse comprado aquele pastel em abril de 2014 eu teria dinheiro agora</t>
-  </si>
-  <si>
-    <t>quase dez horas da manhã
-eu e a bahia: vamo comer pastel?</t>
-  </si>
-  <si>
-    <t>vou flr cm vc lá no pastel no sábado — mds e quem e vc? https://t.co/iqmlxujfy3</t>
-  </si>
-  <si>
-    <t>vou brota ali na feira, pegar esse pastel 😋</t>
-  </si>
-  <si>
-    <t>vi o vídeo da @nilmoretto comendo pastel e agr eu to morrendo de vontade de comer pastel de queijo aff</t>
-  </si>
-  <si>
-    <t>letícia comeu 4 salgados e tá mandando msg querendo comer pastel</t>
-  </si>
-  <si>
-    <t>rt @craiskc: taporra lagartixa tu bebeu água pra caralho https://t.co/jgfx61krvf</t>
-  </si>
-  <si>
-    <t>só queria um pastel de queijo 😞</t>
-  </si>
-  <si>
-    <t>mais um dia acordando sem fome, ontem eu comi 2 coxinhas tipo as do bugao e 1/2 pastel, e acordei sem fome hoje dnv 😫</t>
-  </si>
-  <si>
-    <t>o choque d realidade de ver aquelas mesinha em cor pastel 🤧🤧</t>
-  </si>
-  <si>
-    <t>queria um pastel viu mano</t>
-  </si>
-  <si>
-    <t>se tem uma coisa que eu gosto é pastel</t>
-  </si>
-  <si>
-    <t>tô querendo muito ir na feira come um pastel amanhã</t>
-  </si>
-  <si>
-    <t>af que povo tóxico, ngm me convida pra ir comer um pastel na feira</t>
-  </si>
-  <si>
-    <t>vulneravel e fragilizado precisando comprar um pastel</t>
-  </si>
-  <si>
-    <t>fui derrotado, mas pelo menos comi um pastel com caldo de cana</t>
-  </si>
-  <si>
-    <t>@niinhasillva vai ser maçã e pastel</t>
-  </si>
-  <si>
-    <t>@leiteadpn então... o pastel de nata evaporou-se 😂</t>
-  </si>
-  <si>
-    <t>na vontade de um pastel</t>
-  </si>
-  <si>
-    <t>o cabelo da jiyoung nao ta verde pastel fui iludidahh https://t.co/7hopeaii3o</t>
-  </si>
-  <si>
-    <t>vou comer um pastel de feira 😋</t>
-  </si>
-  <si>
-    <t>que vontade de passar na feira pra comer pastel hj</t>
-  </si>
-  <si>
-    <t>tô nem entendendo essa vontade sendo que nem gosto de pastel, mas esse pastel de pizza da feira aqui da rua é muito bommmmm</t>
-  </si>
-  <si>
-    <t>só um pastel de carne agora...</t>
-  </si>
-  <si>
-    <t>eu só queria o meu pastel</t>
-  </si>
-  <si>
-    <t>rt @andressasenff: chega de treta de csj o jeito é todo mundo ir pro csa, pastel de cachorro quente e rezar todo dia antes da aula cantando…</t>
-  </si>
-  <si>
-    <t>@alinnefanelli quero ver o pastel da feira com um caldin de cana geladinho. até onde vai sua força? kkkkkkk</t>
-  </si>
-  <si>
-    <t>todo mundo trouxe pastel hj</t>
-  </si>
-  <si>
-    <t>rt @rangelagain: @miudobr o pastel tb 🤣</t>
-  </si>
-  <si>
-    <t>@_querumcafe eu lavo, me pague um pastel q ja ta massa</t>
-  </si>
-  <si>
-    <t>@fp_nike aí já é frança, pastel</t>
-  </si>
-  <si>
-    <t>se tivesse pastel com maconha se chamaria pastonha ?</t>
-  </si>
-  <si>
-    <t>me entupindo de pastel e reclamando que minha pele tá uma bosta...alguém me dá um soco</t>
-  </si>
-  <si>
-    <t>eu comi pastel todas manhãs dessa semana
-não estou reclamando</t>
-  </si>
-  <si>
-    <t>fui fritar pastel queimei minha mão</t>
-  </si>
-  <si>
-    <t>a ju me ligou pra perguntar que hrs eu ia comer pastel kkkkkkkkk eu amo</t>
-  </si>
-  <si>
-    <t>pastel com pimenta pq tão bom?</t>
-  </si>
-  <si>
-    <t>queria uma unidade de pastel</t>
-  </si>
-  <si>
-    <t>rt @gnizamaaa: mano isso num pastel ou hambúrguer 💙💙💙💙 https://t.co/x5pkop0zzi</t>
-  </si>
-  <si>
-    <t>@emyxbl toda vez que vou comer pastel lembro dela limpando minha boca toda agora pq eu me sujo toda comendo.. kkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>@ludiasm @felipepileggii pastel, lasanha, qualquer coisa que seja bem frito ou assado 🤷‍♂️</t>
-  </si>
-  <si>
-    <t>comi um pastel do justão ontem que não me fez muito bem viu</t>
-  </si>
-  <si>
-    <t>sem contar no pastel de camarão 💙</t>
-  </si>
-  <si>
-    <t>hoje tem pastel</t>
-  </si>
-  <si>
-    <t>ontem era pao com ovo, hoje to com vontade de comer pastel 🥰 #quintadetremurasdv</t>
-  </si>
-  <si>
-    <t>tentando entender pq eu comprei pipoca doce no centro da cidade e fui numa barraca de pastel da babá do gustavo pra colocar leite condensado no meu sonho às 3h da manhã</t>
-  </si>
-  <si>
-    <t>como ser fit se você acorda e já vem o cheirão de pastel da feira na sua cara?</t>
-  </si>
-  <si>
-    <t>10h da manhã e eu fazendo pastel</t>
-  </si>
-  <si>
-    <t>queria sair pra comer pastel</t>
-  </si>
-  <si>
-    <t>rt @emiliomoreno: 5 curiosidades sobre mim: 
-1. não sei dirigir e nem tenho vontade de aprender;
-2. falo sozinho – inclusive dormindo;
-3…</t>
-  </si>
-  <si>
-    <t>minha irmã me enviando stories que tá indo correr agora de manhã e eu assistindo comendo um pastel frito 🤦</t>
-  </si>
-  <si>
-    <t>@badgirlvivix amiga estou pobre .....meu aniversário é próxima semana.....tem presente melhor que pastel?</t>
-  </si>
-  <si>
-    <t>dia de pastel da feiraaa</t>
-  </si>
-  <si>
-    <t>gente vcs também já tiveram a sensação de estarem totalmente sozinhos?, mas eu tô falando em relação a amizade! tipo as vezes eu quero fazer algo bobo, tipo comer um pastel,ir na rua,jogar conversa fora e aí eu fico tipo ????????????? com quem mano, meu deus.</t>
-  </si>
-  <si>
-    <t>no me deu uma vontade de comer pastel moss</t>
-  </si>
-  <si>
-    <t>rt @laressa: belo horizonte 
-minha amiga pagou o pastel
-- miga quanto custou?
-- não amiga relaxa
-- sério, quanto custou? to curiosa pra sab…</t>
-  </si>
-  <si>
-    <t>thayná ontem pagou pastel pra mim😍😍😍</t>
-  </si>
-  <si>
-    <t>“no cu do pastel” a maria me mata gente ksks</t>
-  </si>
-  <si>
-    <t>@acleverdude @bolsonarosp eles não atacam o brasil,  atacam o pastel de bosta que está na presidência</t>
-  </si>
-  <si>
-    <t>rt @pastelzinhooo: mano queria conhecer algm assim seriao, pensa, conhecer algm q ama pastel tanto qnt eu irmaaaooo https://t.co/baqpocl7dm</t>
-  </si>
-  <si>
-    <t>rt @republicacdn: #cadêachave - saímos de casa pra comer pastel - ep. 1394
-https://t.co/zflrolea9c https://t.co/fgv9x1huw7</t>
+    <t>olhando pra barraquinha de pastel e crepe. senhor, serase q como?</t>
+  </si>
+  <si>
+    <t>rt @chaandely: gente tô vendendo pastel de leite ninho com nutella... quero dar um quarto da grão de gente pro meu filho ! me ajudem 5,00 a…</t>
+  </si>
+  <si>
+    <t>nem gosto de camarão e comi um pastel inteiro c isso ontem</t>
+  </si>
+  <si>
+    <t>rt @purezao_: alguém explica que não da pra fazer pastel no microondas https://t.co/8q3pctwsec</t>
+  </si>
+  <si>
+    <t>só queria um pastel e um caldo de cana</t>
   </si>
   <si>
     <t>a insônia é minha algoz desde os tempos de café com coca-cola+pastel de queijo
@@ -703,44 +556,288 @@
 obs: essa pessoa é de touro. meu pai também. https://t.co/ef3rdlmegv</t>
   </si>
   <si>
-    <t>o meu estômago amanheceu gritando e eu vou e faço oq? compro um pastel</t>
+    <t>pastel da fasa é de respeito</t>
+  </si>
+  <si>
+    <t>q vontade de matar o fdp q encheu meu pastel de pimenta</t>
+  </si>
+  <si>
+    <t>acabei de lembrar que hoje tem feira aaaaa tô só pelo pastel</t>
+  </si>
+  <si>
+    <t>rt @sadsharkz: se tivesse pastel com maconha se chamaria pastonha ?</t>
+  </si>
+  <si>
+    <t>ontem era pao com ovo, hoje to com vontade de comer pastel 🥰 #quintadetremurasdv</t>
+  </si>
+  <si>
+    <t>rt @gnizamaaa: mano isso num pastel ou hambúrguer 💙💙💙💙 https://t.co/x5pkop0zzi</t>
+  </si>
+  <si>
+    <t>queria um pastel de frango com catupiry plenas 8 da manha</t>
+  </si>
+  <si>
+    <t>@guilhotinaaa vamo marcar um dia de comer um pastel em sao carlos</t>
+  </si>
+  <si>
+    <t>10h da manhã e eu fazendo pastel</t>
+  </si>
+  <si>
+    <t>eu quero muito um kit festa com muito pastel risoles e os doce e claro bolo</t>
+  </si>
+  <si>
+    <t>eu só queria um pastel</t>
+  </si>
+  <si>
+    <t>@bernardopkuster durante a campanha fazia arminha com o dedo e comia pão com leite condensado na casa do bolsonaro e agora dá com o dedo do meio para os trouxas que o elegeram e ataca todos os dias o governo e o bolsonaro.
+o povo que votou no pastel de flango do @mblivre vai aceitar "de boa"?</t>
+  </si>
+  <si>
+    <t>“no cu do pastel” a maria me mata gente ksks</t>
+  </si>
+  <si>
+    <t>vou ali na feira comprar um pastel com caldo de cana</t>
+  </si>
+  <si>
+    <t>@emanoel1953 nossa que pergunta original...!!!! dá até sono. https://t.co/znj0gi7xkr</t>
+  </si>
+  <si>
+    <t>rt @carolianando: ana carolina fala das dificuldades de morar no brasil: pastel de feira 6 reais https://t.co/okyxyqmbcb</t>
+  </si>
+  <si>
+    <t>vim na uf só pra matar minha sdd do pastel daqui</t>
+  </si>
+  <si>
+    <t>rt @alinnefanelli: oi, meu nome é alinne e hoje eu resisti ao pastel de quarta-feira na firma.</t>
+  </si>
+  <si>
+    <t>sábado vou sair pra comer pastel com caldo de cana</t>
+  </si>
+  <si>
+    <t>rt @republicacdn: #cadêachave - saímos de casa pra comer pastel - ep. 1394
+https://t.co/zflrolea9c https://t.co/fgv9x1huw7</t>
+  </si>
+  <si>
+    <t>letícia comeu 4 salgados e tá mandando msg querendo comer pastel</t>
   </si>
   <si>
     <t>critiquei o pastel ontem e to comendo agr p n ficar com fome</t>
   </si>
   <si>
-    <t>eu totalmente estressada e puta com vida 😡😡😡
-comendo pastel de banana com leite condensado 🥰🥰🥰</t>
-  </si>
-  <si>
-    <t>acordei com vontade de comer pastel com caldo de cana</t>
-  </si>
-  <si>
-    <t>00:31 e eu indo fazer pastel</t>
-  </si>
-  <si>
-    <t>talvez eu até me atrase pra reunião da loja, mas vou comer pastel antes de sair de casa</t>
+    <t>tô nesse exato momento sentado na frente de uma padaria pensando em comprar pão de queijo e pastel folhado aaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>personalize suas capinhas ou use capinhas de uma cor pastel https://t.co/k5wgso3qrt</t>
+  </si>
+  <si>
+    <t>eu salivo um pastel tem semanas po</t>
+  </si>
+  <si>
+    <t>eu só queria comer pastel de queijo ou pão de queijo  🤤</t>
+  </si>
+  <si>
+    <t>rt @martiinsjackson: larissa disse que queria pastel, fechou a loja dela e eu esqueci de levar 👍🤦🏼‍♂️</t>
+  </si>
+  <si>
+    <t>agitamos um pastel no escuro mesmo 😂😋</t>
+  </si>
+  <si>
+    <t>........ hoje sonhei que tinha comido um pastel que tinha carne e eu não sabia.............. o sonho acabou aí</t>
+  </si>
+  <si>
+    <t>pega esse pastel pra trampa mec</t>
+  </si>
+  <si>
+    <t>pai comprou um pastel e uma coca pra mim ontem ❤</t>
+  </si>
+  <si>
+    <t>vou degustar um pastel na feira do a.l ali</t>
+  </si>
+  <si>
+    <t>hj eu só queria um pastel com caldo de cana</t>
+  </si>
+  <si>
+    <t>@laurivieri eu espero do fundo do coração que o almoço de sabado seja pastel com molho de pimenta</t>
+  </si>
+  <si>
+    <t>tô querendo muito ir na feira come um pastel amanhã</t>
+  </si>
+  <si>
+    <t>vou sozinho? vou mas ao menos vou comer pastel</t>
+  </si>
+  <si>
+    <t>gente vcs também já tiveram a sensação de estarem totalmente sozinhos?, mas eu tô falando em relação a amizade! tipo as vezes eu quero fazer algo bobo, tipo comer um pastel,ir na rua,jogar conversa fora e aí eu fico tipo ????????????? com quem mano, meu deus.</t>
+  </si>
+  <si>
+    <t>como eu gosto de pastel</t>
+  </si>
+  <si>
+    <t>@niinhasillva vai ser maçã e pastel</t>
+  </si>
+  <si>
+    <t>@ferigatto_gui vc não vai comer pastel</t>
+  </si>
+  <si>
+    <t>vi o vídeo da @nilmoretto comendo pastel e agr eu to morrendo de vontade de comer pastel de queijo aff</t>
+  </si>
+  <si>
+    <t>queria uma unidade de pastel</t>
+  </si>
+  <si>
+    <t>@fp_nike aí já é frança, pastel</t>
+  </si>
+  <si>
+    <t>no me deu uma vontade de comer pastel moss</t>
+  </si>
+  <si>
+    <t>nem minha chefe leva a sério que eu quero ser fitness acabou de pedir pra mim ir buscar pastel pra gente, assim não da produção</t>
+  </si>
+  <si>
+    <t>tô na esperança de mamãe ir na feira e trazer meu pastel</t>
+  </si>
+  <si>
+    <t>gente vcs também já tiveram a sensação de estarem totalmente sozinhos?, mas eu tô falando em relação a tudo, amizade, entre outras! tipo as vezes eu quero fazer algo bobo, tipo comer um pastel, ir na rua, jogar conversa fora e aí eu fico tipo ???????????? com quem mano, meu deus!</t>
+  </si>
+  <si>
+    <t>rt @miasteiner: sdds fazer pastel com o menino que eu gosto @schultergui</t>
+  </si>
+  <si>
+    <t>@iviescopel caaaaaaaaaaaaaara! hj é quinta! dia do caldo e pastel na barbosa tower!</t>
+  </si>
+  <si>
+    <t>vontade de comer pastel com muita massa</t>
+  </si>
+  <si>
+    <t>encontrei 2 miúdos num café a lutar por um pastel de nata. tirei-lhes o pastel e comi-o. perguntaram-me se podia tomar conta deles. percebi logo que eram socialistas</t>
+  </si>
+  <si>
+    <t>eu só tenho 5 reais e hj tem feira, fiquei naquela "compro um pastel ou como bisnaguinha no escritório?". decidi economizar. chego no escritório, a porta que dá acesso a cozinha está trancada...</t>
+  </si>
+  <si>
+    <t>pena que ela só vai comprar o pastel pra mim ir pro médico mesmo</t>
+  </si>
+  <si>
+    <t>rt @dias_mateus23: gente vcs também já tiveram a sensação de estarem totalmente sozinhos?, mas eu tô falando em relação a tudo, amizade, en…</t>
+  </si>
+  <si>
+    <t>@jovempannews ainda dão espaço pra essa tia do pastel de vento?</t>
+  </si>
+  <si>
+    <t>hj tem pastel no donki fii</t>
+  </si>
+  <si>
+    <t>queria o pastel de ontem e depois ficar encangada em ed :/</t>
+  </si>
+  <si>
+    <t>comecei a academia ontem e o meu pós treino foi um pastel da feira</t>
+  </si>
+  <si>
+    <t>rt @rehdiaaas: to aq na tia bica c a familia olhando jogo, e fazendo pastel caseiro 🤤🤤🤤</t>
+  </si>
+  <si>
+    <t>vontade de comer pastel mas não posso😫</t>
+  </si>
+  <si>
+    <t>decidido: vou há feira daqui a pouco pra comer pastel. só não sei se tiro uma soneca até lá ou se fico acordado direto.</t>
+  </si>
+  <si>
+    <t>n sei se fico feliz ou com medo pela uniao da minha sala 
+hmmm vejo isso dps hj a gente vai comemora come pastel</t>
+  </si>
+  <si>
+    <t>rt @igcarvalho_: queria comer um pastel da feira 🤦‍♂️😩</t>
+  </si>
+  <si>
+    <t>acordei com uma vontade de comer pastel 🤤</t>
+  </si>
+  <si>
+    <t>eu com um cigarro na boca, fritando pastel e pensando "tô nem aí, o que mata é o aquecimento global"</t>
+  </si>
+  <si>
+    <t>se tem uma coisa que eu gosto é pastel</t>
+  </si>
+  <si>
+    <t>#cadêachave - saímos de casa pra comer pastel - ep. 1394
+https://t.co/zflrolea9c https://t.co/fgv9x1huw7</t>
+  </si>
+  <si>
+    <t>eu queria muito um pastel de calabresa com queijo e caldo de cana</t>
+  </si>
+  <si>
+    <t>depois de 14hrs de uma viagem infernal, cheguei em bh. 
+agora é tomar uma cerveja e uma bento velho no rei do pastel pra comemorar! 
+bh eu te amo</t>
+  </si>
+  <si>
+    <t>o #bdsp mostrando feiras, já vem aquela vontade de comer aquele pastel.</t>
+  </si>
+  <si>
+    <t>@claytonsf compra os dois e faz um sanduíche de pastel</t>
+  </si>
+  <si>
+    <t>rt @tuiterdaisabela: queria comer pastel e caldo de cana, bom dia</t>
+  </si>
+  <si>
+    <t>@cacagil123 @cassiisblack tem um molho verde na minha cidade em uma barraca de pastel, mas n é igual o de primavera</t>
+  </si>
+  <si>
+    <t>pastel de brigadeiro e suco de cupuaçu = lícia</t>
+  </si>
+  <si>
+    <t>eu tô muito lombriguenta, ontem queria pastel e hoje quero cachorro quente</t>
+  </si>
+  <si>
+    <t>encher o cu de pastel esse fds</t>
+  </si>
+  <si>
+    <t>me entupi de esfiha de queijo ontem, acabei de comer um pastel de feira... e a dieta? jejum? vida fitness? perdi em algum lugar</t>
+  </si>
+  <si>
+    <t>@aline_spengler depois da noite do pastel mereço sim</t>
+  </si>
+  <si>
+    <t>rt @bwrntdiee: aí só um piercing, um pastel e caldo de cana pra eu ficar feliz</t>
+  </si>
+  <si>
+    <t>@rafa_lanys @guihc7 isso é vdd kkkk fica com ciúmes não pastel de flango</t>
+  </si>
+  <si>
+    <t>rt @jorgin_crvg: acho que sou o único de austin que nunca comeu o pastel dela https://t.co/4uxw3zh3xs</t>
+  </si>
+  <si>
+    <t>eu comi pastel todas manhãs dessa semana
+não estou reclamando</t>
+  </si>
+  <si>
+    <t>minha barriga após este dia q comi empadinha bala de eucalipto pastel de pizza cerveja pão rosquinha de laranja achocolatado quente: https://t.co/1m0zjoy1fh</t>
+  </si>
+  <si>
+    <t>rt @heydiane_: pqp vontade de um pastel de queijo e um caldo de cana</t>
+  </si>
+  <si>
+    <t>ae @vsmzin vamos uma troca, você me envia uma camisa da detona como presente de aniversário e eu te envio dois pastel e dois caldicana gelado 😆😆</t>
+  </si>
+  <si>
+    <t>hoje tem pastel</t>
+  </si>
+  <si>
+    <t>fiquei com tanta raiva q eu comi até um pastel</t>
   </si>
   <si>
     <t>q susto achei q tava falando do chan ai vi q era pastel e vi a foto https://t.co/cw6qu63mzs</t>
   </si>
   <si>
-    <t>riot me dando skin ultimate só pra reforçar o meme de que eu sou a burguesa safada da pele perfeita que tem dinheiro pra gastar com skin, quando na realidade minha pele tá um lixo, minha vida amorosa tá uma merda e eu mal tenho dinheiro pra comer um pastel na feira...</t>
-  </si>
-  <si>
-    <t>pastel é muito bom ze</t>
-  </si>
-  <si>
-    <t>@ferigatto_gui vc não vai comer pastel</t>
-  </si>
-  <si>
-    <t>só queria ir na escola pra depois sair e come pastel</t>
-  </si>
-  <si>
-    <t>@claytonsf compra os dois e faz um sanduíche de pastel</t>
-  </si>
-  <si>
-    <t>@aline_spengler depois da noite do pastel mereço sim</t>
+    <t>rt @brusorn: por favor me ajudem a conseguir um pastel de graça 
+😔✊ https://t.co/zlp98hl1i1</t>
+  </si>
+  <si>
+    <t>minha irmã me enviando stories que tá indo correr agora de manhã e eu assistindo comendo um pastel frito 🤦</t>
+  </si>
+  <si>
+    <t>afim de comer pastel 8h da manhã</t>
+  </si>
+  <si>
+    <t>depois de sexta é só um pastel e um caldo de cana, que fica novo</t>
   </si>
   <si>
     <t>malta aqui está a questão do século 
@@ -749,378 +846,257 @@
 à colher - fav</t>
   </si>
   <si>
-    <t>peguei o último pastel de carne https://t.co/u8bjptsaz7</t>
-  </si>
-  <si>
-    <t>@joomede79149855 tipo uma pastel e um caldo de cana   da feira , concordo com vc</t>
-  </si>
-  <si>
-    <t>gente vcs também já tiveram a sensação de estarem totalmente sozinhos?, mas eu tô falando em relação a tudo, amizade, entre outras! tipo as vezes eu quero fazer algo bobo, tipo comer um pastel, ir na rua, jogar conversa fora e aí eu fico tipo ???????????? com quem mano, meu deus!</t>
-  </si>
-  <si>
-    <t>@igorsenna97 eu paguei 13 num pastel minúsculo,mas só pq tava com fome mesmo kkkkk tudo muito caro né</t>
-  </si>
-  <si>
-    <t>rt @miasteiner: sdds fazer pastel com o menino que eu gosto @schultergui</t>
-  </si>
-  <si>
-    <t>poxa queria um pastel de feira, desejos de madrugada, ainda bem que hoje é quinta e eu posso comer</t>
-  </si>
-  <si>
-    <t>@lscorreaa mas vai te lava aubsusbsusbsus passa na padaria e compra pastel eu gosto</t>
-  </si>
-  <si>
-    <t>eu falando que preciso me alimentar melhor e como pastel de cafe da manhã, ai eu sei la ne...</t>
-  </si>
-  <si>
-    <t>fiquei com tanta raiva q eu comi até um pastel</t>
-  </si>
-  <si>
-    <t>@ferreira_duduz aqui em naviraí/ms tem de monte pastel por 1 real</t>
-  </si>
-  <si>
-    <t>quem discordar nunca comeu pastel direito
- https://t.co/inaiaxgfbr https://t.co/kpl0yxbi4t</t>
-  </si>
-  <si>
-    <t>@1640ginnie está com o que? estou bem!!!!! com sono e calor, mas bem. já sim, pastel tudo na vida. e tu?</t>
-  </si>
-  <si>
-    <t>sou obrigada a comer um pastel  de queijo, vou ir comer sozinha mesmo azar</t>
-  </si>
-  <si>
-    <t>encher o cu de pastel esse fds</t>
-  </si>
-  <si>
-    <t>@edupadelista pastel de nata? bom dia!</t>
-  </si>
-  <si>
-    <t>bom dia meus degenerados, que o dia de vocês seja dahora e é isso. me mudo pra londrina hj, (alô londrinenses chama noix) dá um elogio e um chero na sua morena, fala que ela eh gostosa e chama pra comer pastel. enfim, um bom dia</t>
-  </si>
-  <si>
-    <t>rt @brusorn: por favor me ajudem a conseguir um pastel de graça 
-😔✊ https://t.co/zlp98hl1i1</t>
-  </si>
-  <si>
-    <t>afim de comer pastel 8h da manhã</t>
-  </si>
-  <si>
-    <t>hoje eu só precisava de um pastel de feira pra recarregar as energias</t>
-  </si>
-  <si>
-    <t>a nivea da lata azul e muito oleosa af, minha mãe sempre compra esse hidratante, minha pele fica dando pra fritar pastel</t>
-  </si>
-  <si>
-    <t>queria estar comendo pastel kkk</t>
-  </si>
-  <si>
-    <t>queria um pastel de queijo</t>
-  </si>
-  <si>
-    <t>@rafa_lanys @guihc7 isso é vdd kkkk fica com ciúmes não pastel de flango</t>
-  </si>
-  <si>
-    <t>n sei se fico feliz ou com medo pela uniao da minha sala 
-hmmm vejo isso dps hj a gente vai comemora come pastel</t>
-  </si>
-  <si>
-    <t>decidido: vou há feira daqui a pouco pra comer pastel. só não sei se tiro uma soneca até lá ou se fico acordado direto.</t>
-  </si>
-  <si>
-    <t>esse final de semana vou comer o pastel da jennifer, que sdds daquele pastel mane</t>
-  </si>
-  <si>
-    <t>rt @carolianando: ana carolina fala das dificuldades de morar no brasil: pastel de feira 6 reais https://t.co/okyxyqmbcb</t>
-  </si>
-  <si>
-    <t>eu só queria comer pastel de queijo ou pão de queijo  🤤</t>
-  </si>
-  <si>
-    <t>minha barriga após este dia q comi empadinha bala de eucalipto pastel de pizza cerveja pão rosquinha de laranja achocolatado quente: https://t.co/1m0zjoy1fh</t>
-  </si>
-  <si>
-    <t>@bernardopkuster durante a campanha fazia arminha com o dedo e comia pão com leite condensado na casa do bolsonaro e agora dá com o dedo do meio para os trouxas que o elegeram e ataca todos os dias o governo e o bolsonaro.
-o povo que votou no pastel de flango do @mblivre vai aceitar "de boa"?</t>
-  </si>
-  <si>
-    <t>comecei a academia ontem e o meu pós treino foi um pastel da feira</t>
-  </si>
-  <si>
-    <t>trabalhar pra ter festa do pastel com a pessoa q eu gosto https://t.co/ifhdvcztvo</t>
-  </si>
-  <si>
-    <t>barkurau é o nome de um bar em salvador q faz o pastel mais gostoso da minha vida
-a receita é envolta em misterios</t>
-  </si>
-  <si>
-    <t>9:30 da manhã eu e os meus colegas pedimos pastel p tomar café</t>
+    <t>@nandinh_ps eu não tenho nem amigos imagine que levam pastel kkk</t>
+  </si>
+  <si>
+    <t>pastel de cartola? estranho mas quero provar</t>
   </si>
   <si>
     <t>o meu pedido: uma torrada, um café duplo e um pastel de nata.
 a moça registou 1 torrada, 2 cafés e 1 pastel de nata.... tão a ver o que aconteceu certo??</t>
   </si>
   <si>
+    <t>eu sonhei que pintava meu cabelp de rosa pastel e ele ficava lindo demais</t>
+  </si>
+  <si>
+    <t>queria um pastel viu mano</t>
+  </si>
+  <si>
+    <t>paguei por 100g de pastel na central e a mulher me deu 200g
+queria agradecer não só a deus mas também a jesus</t>
+  </si>
+  <si>
+    <t>dia de pastel da feiraaa</t>
+  </si>
+  <si>
+    <t>melhor pastel de padaria disparado é o da bracarense</t>
+  </si>
+  <si>
+    <t>tô devendo um pastel pro joão mais nem aconteceu ainda pra mim paga ele</t>
+  </si>
+  <si>
+    <t>me entupindo de pastel e reclamando que minha pele tá uma bosta...alguém me dá um soco</t>
+  </si>
+  <si>
+    <t>@leiteadpn então... o pastel de nata evaporou-se 😂</t>
+  </si>
+  <si>
+    <t>o choque d realidade de ver aquelas mesinha em cor pastel 🤧🤧</t>
+  </si>
+  <si>
+    <t>rt @emiliomoreno: 5 curiosidades sobre mim: 
+1. não sei dirigir e nem tenho vontade de aprender;
+2. falo sozinho – inclusive dormindo;
+3…</t>
+  </si>
+  <si>
+    <t>ow mano desenhar com giz pastel é mó fita</t>
+  </si>
+  <si>
+    <t>poxa queria um pastel de feira, desejos de madrugada, ainda bem que hoje é quinta e eu posso comer</t>
+  </si>
+  <si>
     <t>mas compensei comendo pastel no café da manhã</t>
   </si>
   <si>
-    <t>negaa, guardou um pastel pra mim❤</t>
-  </si>
-  <si>
-    <t>hj tem pastel no donki fii</t>
-  </si>
-  <si>
-    <t>era só um pastel de carne com queijo do trevo 😋</t>
-  </si>
-  <si>
-    <t>eu quero muito um kit festa com muito pastel risoles e os doce e claro bolo</t>
-  </si>
-  <si>
-    <t>@fwuckit da próxima compro um pastel k</t>
-  </si>
-  <si>
-    <t>pena que ela só vai comprar o pastel pra mim ir pro médico mesmo</t>
-  </si>
-  <si>
-    <t>eu tô muito lombriguenta, ontem queria pastel e hoje quero cachorro quente</t>
-  </si>
-  <si>
-    <t>rt @jorgin_crvg: acho que sou o único de austin que nunca comeu o pastel dela https://t.co/4uxw3zh3xs</t>
-  </si>
-  <si>
-    <t>acabei de lembrar que hoje tem feira aaaaa tô só pelo pastel</t>
-  </si>
-  <si>
-    <t>@dakrparadises cala boca tu tem q come pastel e me pagar sorvete</t>
-  </si>
-  <si>
-    <t>acabei de descobrir vendo nilce e leon que tem festival brasileiro de pastel em vancouver mano @alyssonpatrici2</t>
-  </si>
-  <si>
-    <t>estou tao pastel, quero ir embora</t>
-  </si>
-  <si>
-    <t>indo comer pastel como se não fosse foder minha dieta https://t.co/xqsx4u2ben</t>
-  </si>
-  <si>
-    <t>@paulxbr_ menina ontem vc falou do pastel eu lembrei na hora do açaí, que bad vei, me arrepiei todinha na hora só de imaginar kkkkkkkk</t>
-  </si>
-  <si>
-    <t>pastel de brigadeiro e suco de cupuaçu = lícia</t>
-  </si>
-  <si>
-    <t>aquele momento que a gente estuda no annes, e tu compra um pastel e vem gente do outro lado da escola só pra te pedir um pedaço afff https://t.co/fvlock7pbl</t>
-  </si>
-  <si>
-    <t>comendo uma maçã fingindo ser um pastel com bastante vinagrete, bom dia quinta</t>
-  </si>
-  <si>
-    <t>será q a amanda tá em casa pensando no pastel de camarão????</t>
-  </si>
-  <si>
-    <t>rt @chaandely: gente tô vendendo pastel de leite ninho com nutella... quero dar um quarto da grão de gente pro meu filho ! me ajudem 5,00 a…</t>
-  </si>
-  <si>
-    <t>#bdsp .. pretendo ir na feira comer um pastel hoje...
-se não chover !!</t>
-  </si>
-  <si>
-    <t>rt @igcarvalho_: queria comer um pastel da feira 🤦‍♂️😩</t>
-  </si>
-  <si>
-    <t>só queria comer 4 açaí, 8 coxinha e 5 pastel com 2 coca-cola de dois litro agora.</t>
-  </si>
-  <si>
-    <t>como cê se vê daqui a 5 anos? — na minha casa, podendo ir pra fera quando eu quisesse ( ou seja sempre) pra pagar um pastel pra gente https://t.co/xxrrbc48lo</t>
+    <t>a nivea da lata azul e muito oleosa af, minha mãe sempre compra esse hidratante, minha pele fica dando pra fritar pastel</t>
   </si>
   <si>
     <t>nossa que vontade de comer um pastel...
 (onde tá escrito pastel leia-se você)</t>
   </si>
   <si>
-    <t>nem minha chefe leva a sério que eu quero ser fitness acabou de pedir pra mim ir buscar pastel pra gente, assim não da produção</t>
-  </si>
-  <si>
-    <t>depois de 14hrs de uma viagem infernal, cheguei em bh. 
-agora é tomar uma cerveja e uma bento velho no rei do pastel pra comemorar! 
-bh eu te amo</t>
-  </si>
-  <si>
-    <t>@ywalter aquele pastel é vida</t>
-  </si>
-  <si>
-    <t>@joaovitorlopc pode ser um pastel de terça feira que tem no cond da minha mamis rsrs</t>
-  </si>
-  <si>
-    <t>lucas vai salvar no pastel hoje, tava na hora já 😁</t>
+    <t>resumo comi um pastel de forno recheado de vento quentinho com um suco de maracujá e resolveu minha fome</t>
+  </si>
+  <si>
+    <t>@nathdudaa sábado você paga o pastel,não é possível</t>
+  </si>
+  <si>
+    <t>auge comer pastel e começar a chover e depois a chuva piorar e ter q sair correndo</t>
+  </si>
+  <si>
+    <t>mkkkkkkkkkkkkkk hj to so esse cara bebo aqui no pastel</t>
+  </si>
+  <si>
+    <t>alguém pra ir comer um pastel na 14 amanhã?</t>
+  </si>
+  <si>
+    <t>o meu estômago amanheceu gritando e eu vou e faço oq? compro um pastel</t>
+  </si>
+  <si>
+    <t>pensando no pastel do kubo amanhã antes de entrar no barco pra ir pra ilha haha</t>
+  </si>
+  <si>
+    <t>hora de sair da cama pois tenho 1 pastel de chocolate e coca pra tomar de café</t>
+  </si>
+  <si>
+    <t>rafa foi lá fora comprar pastel e caldo de cana pra gente</t>
+  </si>
+  <si>
+    <t>@edupadelista pastel de nata? bom dia!</t>
+  </si>
+  <si>
+    <t>como cê se vê daqui a 5 anos? — na minha casa, podendo ir pra fera quando eu quisesse ( ou seja sempre) pra pagar um pastel pra gente https://t.co/xxrrbc48lo</t>
+  </si>
+  <si>
+    <t>esse final de semana vou comer o pastel da jennifer, que sdds daquele pastel mane</t>
+  </si>
+  <si>
+    <t>era só um pastel de queijo c caldo de cana 😤🤤</t>
+  </si>
+  <si>
+    <t>só queria comer 4 açaí, 8 coxinha e 5 pastel com 2 coca-cola de dois litro agora.</t>
+  </si>
+  <si>
+    <t>@ludiasm @felipepileggii pastel, lasanha, qualquer coisa que seja bem frito ou assado 🤷‍♂️</t>
+  </si>
+  <si>
+    <t>pastel de almoço hj</t>
+  </si>
+  <si>
+    <t>acordei com vontade de comer pastel com caldo de cana</t>
+  </si>
+  <si>
+    <t>eu só queria um pastel com caldo de cana 😅💓</t>
+  </si>
+  <si>
+    <t>o bom dia de hoje foi com um pastel e uma coca 💗</t>
+  </si>
+  <si>
+    <t>agora sim comendo um pastel de carne com uma ks de guaraná</t>
+  </si>
+  <si>
+    <t>riot me dando skin ultimate só pra reforçar o meme de que eu sou a burguesa safada da pele perfeita que tem dinheiro pra gastar com skin, quando na realidade minha pele tá um lixo, minha vida amorosa tá uma merda e eu mal tenho dinheiro pra comer um pastel na feira...</t>
+  </si>
+  <si>
+    <t>tudo que eu comi o dia todo hj foi um pastel com suco e to aqui com gastura em plena madrugada querendo vomitar</t>
+  </si>
+  <si>
+    <t>meu primo é um pretão foda e tava namorando com uma pastel aí.
+ela foi racista na frente dele e ele largou ela.
+agora tá namorando una mina do olho d'água (indígena) que fez de tudo por ele. 
+vi eles de mãozinha dada hoje e tô sorridente.
+ele sofreu na mão da pastelzinha lá...</t>
+  </si>
+  <si>
+    <t>i'm at pastel do japonês -  feira livre in são paulo, sp https://t.co/zkzfkryf9x</t>
   </si>
   <si>
     <t>começando o dia comendo 3 pastel, fraco de fome</t>
   </si>
   <si>
-    <t>hj eu só queria um pastel com caldo de cana</t>
-  </si>
-  <si>
-    <t>o que os brasileiros que vão me receber encomendaram:
-- massa de pastel 
-- ypioca 
-- havaianas 
-- suco tang de laranja (para comer o pózinho.)</t>
-  </si>
-  <si>
-    <t>rt @purezao_: alguém explica que não da pra fazer pastel no microondas https://t.co/8q3pctwsec</t>
-  </si>
-  <si>
-    <t>vou sozinho? vou mas ao menos vou comer pastel</t>
-  </si>
-  <si>
-    <t>a tia do pastel do pé do morro fica com mo neurose de desenrola mas um 😬😡 https://t.co/onkgkfkexi</t>
-  </si>
-  <si>
-    <t>queria comer um pastel da feira 🤦‍♂️😩</t>
-  </si>
-  <si>
-    <t>ae @vsmzin vamos uma troca, você me envia uma camisa da detona como presente de aniversário e eu te envio dois pastel e dois caldicana gelado 😆😆</t>
-  </si>
-  <si>
-    <t>noite do pastel c os amigos, ri até a barriga doer, qd eu falo q n troco por nd, é disso q eu m refiro... ❤️</t>
-  </si>
-  <si>
-    <t>só queria um pastel e um caldo de cana</t>
-  </si>
-  <si>
-    <t>rt @_souacarol_: malta aqui está a questão do século 
-o pastel de nata (aka a nata) come-se:
-à dentada - retweet
-à colher - fav</t>
-  </si>
-  <si>
-    <t>e tipo estou esgotado po pq meu pai eh um morto de fome amingua poxa custava deixar o meu pastel p mim sendo q é meu ??? só pq eu tava dormindo ele tinha q comer ??? vacilo dms cara https://t.co/k1cpyypso5</t>
-  </si>
-  <si>
-    <t>comi pastel com chá</t>
-  </si>
-  <si>
-    <t>me entupi de esfiha de queijo ontem, acabei de comer um pastel de feira... e a dieta? jejum? vida fitness? perdi em algum lugar</t>
-  </si>
-  <si>
-    <t>👍 on @youtube: saímos de casa pra comer pastel - ep. 1394 https://t.co/h8jt7obupu</t>
-  </si>
-  <si>
-    <t>rt @uttpcyeol: melhor sabor de pastel e porque de pizza? 🤠
-https://t.co/t26jznzdu4</t>
-  </si>
-  <si>
-    <t>queria comer um pastel</t>
-  </si>
-  <si>
-    <t>vai ter pastel pra lau amanhã</t>
-  </si>
-  <si>
-    <t>@jesmaciel @heitor147 eu ainda ia meter em espanhol 
-“lindo pastel”</t>
-  </si>
-  <si>
-    <t>meu pai é foda compra pastel diz que é meu, aí ele vai e come e eu mesmo fico sem nada</t>
-  </si>
-  <si>
-    <t>meu bem mandou entregar pastel e coca p mim ❤️</t>
-  </si>
-  <si>
-    <t>só por desaforo vo bolar um pastel aq 🤤 kkkkkkkk</t>
+    <t>to pior que pastel de feira no domingo</t>
+  </si>
+  <si>
+    <t>depois que eu sair do exame quero comer pastel e churros</t>
+  </si>
+  <si>
+    <t>eu logo de manhã comendo pastel de camarão, certeza que vou passar mal</t>
+  </si>
+  <si>
+    <t>@ohamikchi eu super queira um pastel a todo momento da minha vida q</t>
+  </si>
+  <si>
+    <t>rt @andressasenff: chega de treta de csj o jeito é todo mundo ir pro csa, pastel de cachorro quente e rezar todo dia antes da aula cantando…</t>
+  </si>
+  <si>
+    <t>amanhã tem pastel na fábrica</t>
+  </si>
+  <si>
+    <t>comi dois pastel com caldo de cana 😋🤤</t>
+  </si>
+  <si>
+    <t>@rodrigobocardi feira vem na memória "afetiva estomacal" pastel..kkkk e eu adoroooo. com meus alunos numa feira em caieiras. https://t.co/qmu2brcjkl</t>
+  </si>
+  <si>
+    <t>se fosse o bestao aqui deixaria um pastel p todo mundo eu não tenho pai tenho um cara podre arrogante e q so pensa nele https://t.co/qckedbncfj</t>
+  </si>
+  <si>
+    <t>@miudobr o pastel tb 🤣</t>
+  </si>
+  <si>
+    <t>só queria um pastel com caldo de cana agora</t>
   </si>
   <si>
     <t>@mar1gol rosa pastel pfffff eu vou te amar mt</t>
   </si>
   <si>
-    <t>e eu que descobri que meu irmão comprou chocolate e pastel para namoradinha dele hoje, e para mim nem uma balaaaaaaa</t>
-  </si>
-  <si>
-    <t>rt @alohaduds: pastel de brigadeiro e suco de cupuaçu = lícia</t>
-  </si>
-  <si>
-    <t>pastel de costelinha com creamcheese do bitonho conte comigo para tudo</t>
-  </si>
-  <si>
-    <t>saudades do estágio, qdo eu podia comer subway direto e pastel no kaskito umas 2x na semana</t>
+    <t>@luizfelipemot em cima da casa do pastel tem uma boa e barata</t>
+  </si>
+  <si>
+    <t>não aguento mais, p onde eu olho eu enxergo um pastel</t>
+  </si>
+  <si>
+    <t>aí ele falou "suave esse vai ser a nova lá casa de pastel" mano eu berrei mskskskskskskskskkskksksksksksksksks eu passo mal com esse garoto todo o dia</t>
+  </si>
+  <si>
+    <t>alguem do ifes me paga um pastel c caldo d cana amanha namoralzinha..</t>
+  </si>
+  <si>
+    <t>@caio_luis26 saudades de ir com vc comer pastel</t>
   </si>
   <si>
     <t>@rodrigocoelhoc @canaldigplay @plweyne diegão acertou do xenoblade!!! dá um pastel p ele</t>
-  </si>
-  <si>
-    <t>ba mas eu queria tanto um pastel de chocolate com moranguinho agora ..</t>
-  </si>
-  <si>
-    <t>ele não comprou pastel, mas comprou pão de queijo. bão tb!!</t>
-  </si>
-  <si>
-    <t>pai fez pastel😍💘</t>
-  </si>
-  <si>
-    <t>@lucasalx97 to vendo mais sua mãe do que você kkkkkk to trabalhando né bb, mas pode me pagar um pastel qualquer dia</t>
-  </si>
-  <si>
-    <t>meu mano e eu estamos fazendo pastel essa hora 😂</t>
-  </si>
-  <si>
-    <t>meu deus to me sentindo mal, arrombei o negócio pra esquentar o pastel e nem tô com tanta fome https://t.co/pfgfnf2m8q</t>
-  </si>
-  <si>
-    <t>so queria um pastel de frango com cheddar e molho de alho</t>
-  </si>
-  <si>
-    <t>@alinnefanelli e quem resiste pastel?</t>
-  </si>
-  <si>
-    <t>aí ele falou "suave esse vai ser a nova lá casa de pastel" mano eu berrei mskskskskskskskskkskksksksksksksksks eu passo mal com esse garoto todo o dia</t>
-  </si>
-  <si>
-    <t>@_magrela__ vou comer pastel sim</t>
-  </si>
-  <si>
-    <t>o carinha lá do pastel lá só larga as story das minas já me liguei nisso 🤨</t>
   </si>
   <si>
     <t>instagram me lembrou que um ano atrás eu tava comendo pastel neste dia...
 inveja de mim de um ano atrás. além daqueles cabelos enormes que eu tava, ainda tinha pastel kkkkkkkkkk</t>
   </si>
   <si>
-    <t>marcador florescente ou pastel? — não sei o que é pastel por isso o florescente https://t.co/xuxv9iicsp</t>
-  </si>
-  <si>
-    <t>@turistaperdido_ vai na pastelaria do meu primo o pastel é grandão e recheadão no max 6 reais kkkk o rocha e o lucas tão de prova</t>
-  </si>
-  <si>
-    <t>devido horario eu e stefani fritando pastel chei de fome</t>
+    <t>só por desaforo vo bolar um pastel aq 🤤 kkkkkkkk</t>
+  </si>
+  <si>
+    <t>acho que nunca quis tanto um pastel igual eu to querendo</t>
+  </si>
+  <si>
+    <t>gabriel cara de pastel — kkkkkk cada uma https://t.co/mjfil0l8rx</t>
+  </si>
+  <si>
+    <t>"vem comer pastel amor, a sobremesa é o seu docinho aqui"</t>
+  </si>
+  <si>
+    <t>rt @chaekyz: pastel foi feito pra ter sabor pizza
+tentem mudar minha opinião https://t.co/m3qcmz5gak</t>
   </si>
   <si>
     <t>eu queria o pastel da dona rô</t>
   </si>
   <si>
-    <t>sdd do pastel da feirinha toda quinta 😥</t>
-  </si>
-  <si>
-    <t>é uma merda ir pedalar as 7:30 da manhã pq eu passo na ciclovia e vem o cheiro de pastel quentinho dos china</t>
-  </si>
-  <si>
-    <t>sdds fazer pastel com o menino que eu gosto @schultergui</t>
+    <t>rt @nabatisti: @laressa em santa catarina a gente não compra um pastel por dois reais nem se tiver envenenado</t>
+  </si>
+  <si>
+    <t>pastel 👍 — de queijo é enjoativo. carne maior e melhor https://t.co/7egvwnzjs6</t>
+  </si>
+  <si>
+    <t>na mo vontade de comer o pastel da val</t>
+  </si>
+  <si>
+    <t>queria ir em veneza ver o filme do coringa mas só tenho dois reais e um pastel no bolso.. com isso só dá pra viajar mas em outra viagem kkk 😂</t>
+  </si>
+  <si>
+    <t>@loremattitas @hiegofelipe nada de novo né, caldo de cana com pastel de feira smp foi o caminho, verdade e vida né</t>
+  </si>
+  <si>
+    <t>[5/9 00:57] juliaa: paga o pastel
+[5/9 00:58] : vou pagar po
+[5/9 00:58] : quer mais oq ?
+[5/9 00:59] juliaa: pastel
+[5/9 00:59] juliaa: só
+[5/9 00:59] : de que ?
+[5/9 00:59] juliaa: queijo
+[5/9 00:59] : ta bom</t>
+  </si>
+  <si>
+    <t>o cara deu carona pra todo mundo que tava no ponto tinha umas 3 pessoas e agora to aqui sozinha com a minha cara de pastel</t>
+  </si>
+  <si>
+    <t>rt @nynhasales: gente vcs também já tiveram a sensação de estarem totalmente sozinhos?, mas eu tô falando em relação a tudo, amizade, entre…</t>
   </si>
   <si>
     <t>lucas
 cor de massa de pastel crua
 cabelo do justin bieber old
 boca fina https://t.co/dsqxxk6jnf</t>
-  </si>
-  <si>
-    <t>@gustavo66251419 aula tá chata, só lendo sobre pastel kkk, da fome</t>
-  </si>
-  <si>
-    <t>vei vontade de comer um pastel de 1 metro</t>
-  </si>
-  <si>
-    <t>rt @patypohl: preciso tanto d um pastel do rio da prata agora</t>
-  </si>
-  <si>
-    <t>@bomdia_sp a feira de salesopolis tem muito mais do que pastel. tem paella, galinhada, afogado( prato tipico) e muito mais só chegar pra conhecer.</t>
   </si>
   <si>
     <t>rt @laressa Belo Horizonte 
@@ -1134,35 +1110,190 @@
 Namoral kkkkk a gente vive muito mal no Rio de Janeiro</t>
   </si>
   <si>
+    <t>vai ter pastel pra lau amanhã</t>
+  </si>
+  <si>
+    <t>@michellebravim uma pena que aqui em cachoeiro não tenha aquelas feiras, com pastel e caldo de cana, se não eu levaria sim, com maior prazer.</t>
+  </si>
+  <si>
+    <t>@geragerencia amiga tem pastel doce?</t>
+  </si>
+  <si>
+    <t>ana carolina fala das dificuldades de morar no brasil: pastel de feira 6 reais https://t.co/okyxyqmbcb</t>
+  </si>
+  <si>
+    <t>ba mas eu queria tanto um pastel de chocolate com moranguinho agora ..</t>
+  </si>
+  <si>
+    <t>rt @uttpcyeol: melhor sabor de pastel e porque de pizza? 🤠
+https://t.co/t26jznzdu4</t>
+  </si>
+  <si>
+    <t>@iasminleao_ o pastel eu não tenho, mas a calabresa a gente providência</t>
+  </si>
+  <si>
+    <t>pra quem tá com crise de gastrite, o café da manhã ser um pastel e uma coca, é uma ótima idéia né? 🤦🤦🤦 parece que meu estômago vai se rasgar no meio</t>
+  </si>
+  <si>
+    <t>falei pra minha mãe que estava com vontade de comer pastel e ela disse que amanhã depois do médico nós vamos, nem tenho motivo pra ficar feliz pra ir pro médico po</t>
+  </si>
+  <si>
+    <t>tô doida pra comer um pastel pqp 🤤</t>
+  </si>
+  <si>
+    <t>@ahsuashaushauhs bo fazer uns pastel na minha casa?</t>
+  </si>
+  <si>
+    <t>eu doido pra comer um pastel e um caldo da feira af</t>
+  </si>
+  <si>
+    <t>@pastel_guarapa quando os meus se separam eu fiquei muito feliz, pq foi a melhor escolha que os dois fizeram serioo</t>
+  </si>
+  <si>
+    <t>@jesmaciel @heitor147 eu ainda ia meter em espanhol 
+“lindo pastel”</t>
+  </si>
+  <si>
+    <t>@lolozita17 muito pastel kkkkkk
+agr bobagem só fim de semana, durante a semana é acaeia e vida fitness</t>
+  </si>
+  <si>
+    <t>@_magrela__ vou comer pastel sim</t>
+  </si>
+  <si>
+    <t>ele não comprou pastel, mas comprou pão de queijo. bão tb!!</t>
+  </si>
+  <si>
+    <t>ws ta vendendo pastel 🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>vou comer um pastel de frango com catupiry, não passa de hoje!!</t>
+  </si>
+  <si>
+    <t>rt @martam1904: demasiada qualidade nestas fotos 🥵 https://t.co/9jvmdmn9lj</t>
+  </si>
+  <si>
+    <t>gostosinha no azeite novinha — kkkkkkkk vlw novinho do pastel 😂😂😂😂😂😂😂😂😂 https://t.co/twndgosvrf</t>
+  </si>
+  <si>
+    <t>rt @joaomessina: enquanto isso, no multi-verso onde leo do pastel é colorado e médico:
+rt @leodopastel não pude acompanhar o nosso colorad…</t>
+  </si>
+  <si>
+    <t>devido horario eu e stefani fritando pastel chei de fome</t>
+  </si>
+  <si>
+    <t>@joaopaulomf_ zerou a savassi gad kkkkkkkkk mas lá fecha meio cedo sobra só o rei do pastel</t>
+  </si>
+  <si>
+    <t>meu pai é foda compra pastel diz que é meu, aí ele vai e come e eu mesmo fico sem nada</t>
+  </si>
+  <si>
+    <t>tomei meu cafezinho com pastel, agora pode começar o dia 🤩</t>
+  </si>
+  <si>
     <t>@rafaalbuque ta loka, mas não sou tão ruim assim, comprei um pastel pra ela</t>
   </si>
   <si>
-    <t>acho que nunca quis tanto um pastel igual eu to querendo</t>
-  </si>
-  <si>
-    <t>como assim a laila esperou a menina comer o pastel pra poder bater nela????? kkkkkkkkkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>@isecrf @empolguei domingo de manhã, eu levanto mais cedo que tu vou ora feira comprar pastel ora tu é mirela, quando volto tu n tá em casa, tu chega em casa com mirela e trouxe pastel pra gente também, comemos os pasteis tudo e depois jogamos uno, sonho</t>
-  </si>
-  <si>
-    <t>@parreirasz @gabrielg_franco menino foi uma chuva de comida, pipoca, algodão doce, sacolé (tudo de graça), ainda paguei pra comer pastel</t>
-  </si>
-  <si>
-    <t>eu e o da van botamos 12 reais de pastel e o bruno vai pagar a coca, pega esse café da manhã 100% fitness rs</t>
+    <t>rt @patypohl: preciso tanto d um pastel do rio da prata agora</t>
+  </si>
+  <si>
+    <t>o pao de cima parece um pastel mlk se fosse eu comeria do mesmo jeito https://t.co/pojv26kfai</t>
+  </si>
+  <si>
+    <t>👍 on @youtube: saímos de casa pra comer pastel - ep. 1394 https://t.co/h8jt7obupu</t>
+  </si>
+  <si>
+    <t>ontem eu e o fa fizemos pastel 😋</t>
+  </si>
+  <si>
+    <t>rt @mirellygs5: alguém podia virar e falar que vai me dar um pastel sexta</t>
+  </si>
+  <si>
+    <t>hoje é dia de almoçar pastel de feira. deus abençoe a rotina de trabalho da minha squad. amém.</t>
+  </si>
+  <si>
+    <t>@thiagotrug me vê 5 e um pastel, por favor</t>
+  </si>
+  <si>
+    <t>quartei bebendo a breja cm sarinha e comendo pastel na interativa</t>
+  </si>
+  <si>
+    <t>vei vontade de comer um pastel de 1 metro</t>
+  </si>
+  <si>
+    <t>meu bem mandou entregar pastel e coca p mim ❤️</t>
+  </si>
+  <si>
+    <t>rt @nojentaa80: quero comer pastel, de preferência queijo com presunto😭</t>
   </si>
   <si>
     <t>"tu quer comer pastel?"
 meu pai chamando minha mãe pra comemorar o aniversário dela</t>
   </si>
   <si>
-    <t>ana carolina fala das dificuldades de morar no brasil: pastel de feira 6 reais https://t.co/okyxyqmbcb</t>
-  </si>
-  <si>
-    <t>só pq eu fiz a maior propaganda do pastel pra garota ele tava encharcado de gordura hj https://t.co/mvppeo7jl7</t>
-  </si>
-  <si>
-    <t>só queria um pastel com caldo de cana agora</t>
+    <t>é uma merda ir pedalar as 7:30 da manhã pq eu passo na ciclovia e vem o cheiro de pastel quentinho dos china</t>
+  </si>
+  <si>
+    <t>rt @manopomba: @j4dde_ pastel e caldo de cana( vai tomar sim)</t>
+  </si>
+  <si>
+    <t>eu: não po ninguém vai perceber não 
+eu 1h50 da manhã: vo fritar pastel mano</t>
+  </si>
+  <si>
+    <t>@mxtkr aí maria então leva o raví pra comer pastel de queijo e uma coca, comida é vida e custa barado, economiza 100 reais</t>
+  </si>
+  <si>
+    <t>rt @caiobrag2: que baile oq, vem cmg comer um pastel com coca na esquina</t>
+  </si>
+  <si>
+    <t>reportagem na barraca de pastel com caldicana e eu sem acesso a isso estou ligando para a polícia https://t.co/zpzmkbil5w</t>
+  </si>
+  <si>
+    <t>rt @luaraportosm: eu queria o pastel da dona rô</t>
+  </si>
+  <si>
+    <t>so queria um pastel de frango com cheddar e molho de alho</t>
+  </si>
+  <si>
+    <t>e eu que descobri que meu irmão comprou chocolate e pastel para namoradinha dele hoje, e para mim nem uma balaaaaaaa</t>
+  </si>
+  <si>
+    <t>@parreirasz @gabrielg_franco menino foi uma chuva de comida, pipoca, algodão doce, sacolé (tudo de graça), ainda paguei pra comer pastel</t>
+  </si>
+  <si>
+    <t>meu deus to me sentindo mal, arrombei o negócio pra esquentar o pastel e nem tô com tanta fome https://t.co/pfgfnf2m8q</t>
+  </si>
+  <si>
+    <t>@bomdia_sp a feira de salesopolis tem muito mais do que pastel. tem paella, galinhada, afogado( prato tipico) e muito mais só chegar pra conhecer.</t>
+  </si>
+  <si>
+    <t>@gerardot3ixeira uma pena o fato de demorar umas 8 hr p vc chegar no pastel mas ok</t>
+  </si>
+  <si>
+    <t>@lucaszampiva1 pastel de chuva</t>
+  </si>
+  <si>
+    <t>pai fez pastel😍💘</t>
+  </si>
+  <si>
+    <t>rt @alohaduds: pastel de brigadeiro e suco de cupuaçu = lícia</t>
+  </si>
+  <si>
+    <t>@gustavo66251419 aula tá chata, só lendo sobre pastel kkk, da fome</t>
+  </si>
+  <si>
+    <t>na sua casa vendo clipe com o cdh e comendo pastel</t>
+  </si>
+  <si>
+    <t>saudades do estágio, qdo eu podia comer subway direto e pastel no kaskito umas 2x na semana</t>
+  </si>
+  <si>
+    <t>@lucasalx97 to vendo mais sua mãe do que você kkkkkk to trabalhando né bb, mas pode me pagar um pastel qualquer dia</t>
+  </si>
+  <si>
+    <t>pqp aquele pastel de madrugada embrulhou meu estômago</t>
   </si>
   <si>
     <t>eu quero muito um pastel um caldo de cana e um jatinho pra chegar na cidade adm a tempo
@@ -1170,235 +1301,104 @@
 que lugar longeeeee</t>
   </si>
   <si>
-    <t>rt @chaekyz: pastel foi feito pra ter sabor pizza
-tentem mudar minha opinião https://t.co/m3qcmz5gak</t>
-  </si>
-  <si>
-    <t>hoje é dia de almoçar pastel de feira. deus abençoe a rotina de trabalho da minha squad. amém.</t>
-  </si>
-  <si>
-    <t>na mo vontade de comer o pastel da val</t>
-  </si>
-  <si>
-    <t>na sua casa vendo clipe com o cdh e comendo pastel</t>
-  </si>
-  <si>
-    <t>@joaopaulomf_ zerou a savassi gad kkkkkkkkk mas lá fecha meio cedo sobra só o rei do pastel</t>
-  </si>
-  <si>
-    <t>@caio_luis26 saudades de ir com vc comer pastel</t>
-  </si>
-  <si>
-    <t>se fosse o bestao aqui deixaria um pastel p todo mundo eu não tenho pai tenho um cara podre arrogante e q so pensa nele https://t.co/qckedbncfj</t>
-  </si>
-  <si>
-    <t>aí eu quero muito comer um crepe, mas ao mesmo tempo eu quero comer um pastel, serase eu posso comer os dois?😭😭😭</t>
-  </si>
-  <si>
-    <t>falei pra minha mãe que estava com vontade de comer pastel e ela disse que amanhã depois do médico nós vamos, nem tenho motivo pra ficar feliz pra ir pro médico po</t>
-  </si>
-  <si>
-    <t>pastel 👍 — de queijo é enjoativo. carne maior e melhor https://t.co/7egvwnzjs6</t>
-  </si>
-  <si>
-    <t>pede um pastel pra mim no ifood</t>
-  </si>
-  <si>
-    <t>queria ta fritando pastel e dançando de camiseta e calcinha pro meu amor</t>
-  </si>
-  <si>
-    <t>rt @nynhasales: gente vcs também já tiveram a sensação de estarem totalmente sozinhos?, mas eu tô falando em relação a tudo, amizade, entre…</t>
-  </si>
-  <si>
-    <t>rt @nabatisti: @laressa em santa catarina a gente não compra um pastel por dois reais nem se tiver envenenado</t>
-  </si>
-  <si>
-    <t>rt @caiobrag2: que baile oq, vem cmg comer um pastel com coca na esquina</t>
-  </si>
-  <si>
-    <t>@loremattitas @hiegofelipe nada de novo né, caldo de cana com pastel de feira smp foi o caminho, verdade e vida né</t>
-  </si>
-  <si>
-    <t>@michellebravim uma pena que aqui em cachoeiro não tenha aquelas feiras, com pastel e caldo de cana, se não eu levaria sim, com maior prazer.</t>
-  </si>
-  <si>
-    <t>pra quem tá com crise de gastrite, o café da manhã ser um pastel e uma coca, é uma ótima idéia né? 🤦🤦🤦 parece que meu estômago vai se rasgar no meio</t>
-  </si>
-  <si>
-    <t>alguem do ifes me paga um pastel c caldo d cana amanha namoralzinha..</t>
-  </si>
-  <si>
-    <t>bom dia comendo um pastel gostosinho 🥰</t>
-  </si>
-  <si>
-    <t>queria ir em veneza ver o filme do coringa mas só tenho dois reais e um pastel no bolso.. com isso só dá pra viajar mas em outra viagem kkk 😂</t>
-  </si>
-  <si>
-    <t>rt @joaomessina: enquanto isso, no multi-verso onde leo do pastel é colorado e médico:
-rt @leodopastel não pude acompanhar o nosso colorad…</t>
-  </si>
-  <si>
-    <t>cerveja, pastel e filminho com minha pequena... sou um homem feliz</t>
-  </si>
-  <si>
-    <t>gabriel cara de pastel — kkkkkk cada uma https://t.co/mjfil0l8rx</t>
-  </si>
-  <si>
-    <t>quero um esmalte amarelo pastel</t>
-  </si>
-  <si>
-    <t>@gerardot3ixeira uma pena o fato de demorar umas 8 hr p vc chegar no pastel mas ok</t>
-  </si>
-  <si>
-    <t>[5/9 00:57] juliaa: paga o pastel
-[5/9 00:58] : vou pagar po
-[5/9 00:58] : quer mais oq ?
-[5/9 00:59] juliaa: pastel
-[5/9 00:59] juliaa: só
-[5/9 00:59] : de que ?
-[5/9 00:59] juliaa: queijo
-[5/9 00:59] : ta bom</t>
-  </si>
-  <si>
-    <t>ws ta vendendo pastel 🤣🤣🤣</t>
-  </si>
-  <si>
-    <t>@geragerencia amiga tem pastel doce?</t>
-  </si>
-  <si>
-    <t>@luizfelipemot em cima da casa do pastel tem uma boa e barata</t>
+    <t>queria comer um pastel</t>
+  </si>
+  <si>
+    <t>uma tentação do cacete aqui em casa, to parando de comer besteira e minha vó faz pastel e eu comendo legumes cozido puta pra cacete</t>
   </si>
   <si>
     <t>essas horas e eu comendo pastel</t>
   </si>
   <si>
-    <t>tô doida pra comer um pastel pqp 🤤</t>
-  </si>
-  <si>
-    <t>@pastel_guarapa quando os meus se separam eu fiquei muito feliz, pq foi a melhor escolha que os dois fizeram serioo</t>
-  </si>
-  <si>
-    <t>@ahsuashaushauhs bo fazer uns pastel na minha casa?</t>
-  </si>
-  <si>
-    <t>rt @martam1904: demasiada qualidade nestas fotos 🥵 https://t.co/9jvmdmn9lj</t>
+    <t>só pq eu fiz a maior propaganda do pastel pra garota ele tava encharcado de gordura hj https://t.co/mvppeo7jl7</t>
   </si>
   <si>
     <t>vo só toma uma bera e vê o jogo.
 03:21 comendo pastel</t>
   </si>
   <si>
-    <t>@lucaszampiva1 pastel de chuva</t>
-  </si>
-  <si>
-    <t>@miudobr o pastel tb 🤣</t>
+    <t>a minha vontade de comer pastel só aumenta, socorroooooo</t>
+  </si>
+  <si>
+    <t>queria ta fritando pastel e dançando de camiseta e calcinha pro meu amor</t>
+  </si>
+  <si>
+    <t>pastel de costelinha com creamcheese do bitonho conte comigo para tudo</t>
+  </si>
+  <si>
+    <t>af véi eu amo pastel</t>
+  </si>
+  <si>
+    <t>cerveja, pastel e filminho com minha pequena... sou um homem feliz</t>
+  </si>
+  <si>
+    <t>eu com a bundinha de pastel do @ https://t.co/szwhi4ay46</t>
+  </si>
+  <si>
+    <t>@turistaperdido_ vai na pastelaria do meu primo o pastel é grandão e recheadão no max 6 reais kkkk o rocha e o lucas tão de prova</t>
+  </si>
+  <si>
+    <t>marcador florescente ou pastel? — não sei o que é pastel por isso o florescente https://t.co/xuxv9iicsp</t>
+  </si>
+  <si>
+    <t>aí eu quero muito comer um crepe, mas ao mesmo tempo eu quero comer um pastel, serase eu posso comer os dois?😭😭😭</t>
+  </si>
+  <si>
+    <t>o carinha lá do pastel lá só larga as story das minas já me liguei nisso 🤨</t>
+  </si>
+  <si>
+    <t>sdd do pastel da feirinha toda quinta 😥</t>
+  </si>
+  <si>
+    <t>comi um pastel de frango catupiry agr mas n desceu mt bem n kkk</t>
+  </si>
+  <si>
+    <t>@alinnefanelli e quem resiste pastel?</t>
+  </si>
+  <si>
+    <t>eu e o da van botamos 12 reais de pastel e o bruno vai pagar a coca, pega esse café da manhã 100% fitness rs</t>
+  </si>
+  <si>
+    <t>comer um pastel agr</t>
+  </si>
+  <si>
+    <t>era só um pastel de queijo</t>
+  </si>
+  <si>
+    <t>pede um pastel pra mim no ifood</t>
+  </si>
+  <si>
+    <t>@isecrf @empolguei domingo de manhã, eu levanto mais cedo que tu vou ora feira comprar pastel ora tu é mirela, quando volto tu n tá em casa, tu chega em casa com mirela e trouxe pastel pra gente também, comemos os pasteis tudo e depois jogamos uno, sonho</t>
+  </si>
+  <si>
+    <t>bom dia comendo um pastel gostosinho 🥰</t>
+  </si>
+  <si>
+    <t>só quero um caldo de cana de 500ml, um pastel e um joelho 😫.</t>
+  </si>
+  <si>
+    <t>como assim a laila esperou a menina comer o pastel pra poder bater nela????? kkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>man tô com vontade de comer pastel</t>
+  </si>
+  <si>
+    <t>meu mano e eu estamos fazendo pastel essa hora 😂</t>
+  </si>
+  <si>
+    <t>ai, era só um pastel grandão recheadão, uma batata frita turbinada, e por fim, 5 trufas super recheadas</t>
+  </si>
+  <si>
+    <t>tô com uma vontade de comer pastel de carne com coca q olhaaaaa até sonhei</t>
+  </si>
+  <si>
+    <t>quero um esmalte amarelo pastel</t>
   </si>
   <si>
     <t>rt @fredmatos16: corte de verbas sociais e uma renuncia tributária de r$ 331 bilhões para favorecer a elite econômica. mais concentração de…</t>
   </si>
   <si>
-    <t>eu: não po ninguém vai perceber não 
-eu 1h50 da manhã: vo fritar pastel mano</t>
-  </si>
-  <si>
-    <t>reportagem na barraca de pastel com caldicana e eu sem acesso a isso estou ligando para a polícia https://t.co/zpzmkbil5w</t>
-  </si>
-  <si>
-    <t>comi dois pastel com caldo de cana 😋🤤</t>
-  </si>
-  <si>
-    <t>uma tentação do cacete aqui em casa, to parando de comer besteira e minha vó faz pastel e eu comendo legumes cozido puta pra cacete</t>
-  </si>
-  <si>
-    <t>vou comer um pastel de frango com catupiry, não passa de hoje!!</t>
-  </si>
-  <si>
-    <t>@thiagotrug me vê 5 e um pastel, por favor</t>
-  </si>
-  <si>
-    <t>comi um pastel de frango catupiry agr mas n desceu mt bem n kkk</t>
-  </si>
-  <si>
-    <t>quartei bebendo a breja cm sarinha e comendo pastel na interativa</t>
-  </si>
-  <si>
-    <t>af véi eu amo pastel</t>
-  </si>
-  <si>
-    <t>rt @nojentaa80: quero comer pastel, de preferência queijo com presunto😭</t>
-  </si>
-  <si>
-    <t>pqp aquele pastel de madrugada embrulhou meu estômago</t>
-  </si>
-  <si>
-    <t>comer um pastel agr</t>
-  </si>
-  <si>
-    <t>tô com uma vontade de comer pastel de carne com coca q olhaaaaa até sonhei</t>
-  </si>
-  <si>
-    <t>era só um pastel de queijo</t>
-  </si>
-  <si>
-    <t>o pao de cima parece um pastel mlk se fosse eu comeria do mesmo jeito https://t.co/pojv26kfai</t>
-  </si>
-  <si>
-    <t>@rodrigobocardi feira vem na memória "afetiva estomacal" pastel..kkkk e eu adoroooo. com meus alunos numa feira em caieiras. https://t.co/qmu2brcjkl</t>
-  </si>
-  <si>
-    <t>ontem eu e o fa fizemos pastel 😋</t>
-  </si>
-  <si>
-    <t>ai, era só um pastel grandão recheadão, uma batata frita turbinada, e por fim, 5 trufas super recheadas</t>
-  </si>
-  <si>
-    <t>rt @manopomba: @j4dde_ pastel e caldo de cana( vai tomar sim)</t>
-  </si>
-  <si>
-    <t>@iasminleao_ o pastel eu não tenho, mas a calabresa a gente providência</t>
-  </si>
-  <si>
-    <t>@mxtkr aí maria então leva o raví pra comer pastel de queijo e uma coca, comida é vida e custa barado, economiza 100 reais</t>
-  </si>
-  <si>
-    <t>"vem comer pastel amor, a sobremesa é o seu docinho aqui"</t>
-  </si>
-  <si>
-    <t>eu doido pra comer um pastel e um caldo da feira af</t>
-  </si>
-  <si>
-    <t>man tô com vontade de comer pastel</t>
-  </si>
-  <si>
-    <t>rt @luaraportosm: eu queria o pastel da dona rô</t>
-  </si>
-  <si>
-    <t>rt @mirellygs5: alguém podia virar e falar que vai me dar um pastel sexta</t>
-  </si>
-  <si>
-    <t>tomei meu cafezinho com pastel, agora pode começar o dia 🤩</t>
-  </si>
-  <si>
-    <t>gostosinha no azeite novinha — kkkkkkkk vlw novinho do pastel 😂😂😂😂😂😂😂😂😂 https://t.co/twndgosvrf</t>
-  </si>
-  <si>
-    <t>eu com a bundinha de pastel do @ https://t.co/szwhi4ay46</t>
-  </si>
-  <si>
-    <t>não aguento mais, p onde eu olho eu enxergo um pastel</t>
-  </si>
-  <si>
-    <t>o cara deu carona pra todo mundo que tava no ponto tinha umas 3 pessoas e agora to aqui sozinha com a minha cara de pastel</t>
-  </si>
-  <si>
-    <t>só quero um caldo de cana de 500ml, um pastel e um joelho 😫.</t>
-  </si>
-  <si>
-    <t>@lolozita17 muito pastel kkkkkk
-agr bobagem só fim de semana, durante a semana é acaeia e vida fitness</t>
-  </si>
-  <si>
-    <t>a minha vontade de comer pastel só aumenta, socorroooooo</t>
+    <t>sdds fazer pastel com o menino que eu gosto @schultergui</t>
   </si>
   <si>
     <t>Treinamento</t>
@@ -1805,9 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A563"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3361,17 +3359,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
@@ -3381,92 +3379,92 @@
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>314</v>
+        <v>66</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>316</v>
+        <v>147</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
@@ -3476,237 +3474,237 @@
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>8</v>
+        <v>322</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>321</v>
+        <v>150</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>323</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>324</v>
+        <v>152</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>327</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>329</v>
+        <v>71</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>330</v>
+        <v>243</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>335</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>249</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>338</v>
+        <v>158</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>340</v>
+        <v>159</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>17</v>
+        <v>338</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>342</v>
+        <v>160</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>173</v>
+        <v>339</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>20</v>
+        <v>340</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>174</v>
+        <v>341</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>21</v>
+        <v>342</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -3716,262 +3714,262 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>344</v>
+        <v>167</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>106</v>
+        <v>345</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>346</v>
+        <v>168</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>182</v>
+        <v>348</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>108</v>
+        <v>350</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>110</v>
+        <v>353</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>31</v>
+        <v>354</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>188</v>
+        <v>355</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>350</v>
+        <v>172</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>351</v>
+        <v>27</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>353</v>
+        <v>260</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>256</v>
+        <v>357</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>356</v>
+        <v>88</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>113</v>
+        <v>358</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>114</v>
+        <v>359</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>358</v>
+        <v>31</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>115</v>
+        <v>361</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>116</v>
+        <v>363</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>361</v>
+        <v>33</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>362</v>
+        <v>34</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>364</v>
+        <v>93</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -3981,382 +3979,382 @@
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>368</v>
+        <v>95</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>370</v>
+        <v>38</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>372</v>
+        <v>190</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>43</v>
+        <v>372</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>122</v>
+        <v>279</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>377</v>
+        <v>282</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>379</v>
+        <v>192</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>206</v>
+        <v>376</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>207</v>
+        <v>378</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>125</v>
+        <v>379</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>383</v>
+        <v>287</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>384</v>
+        <v>105</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>385</v>
+        <v>45</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>127</v>
+        <v>382</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>278</v>
+        <v>46</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>47</v>
+        <v>384</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>128</v>
+        <v>385</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>389</v>
+        <v>201</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>211</v>
+        <v>386</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>212</v>
+        <v>387</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>130</v>
+        <v>389</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>391</v>
+        <v>205</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>392</v>
+        <v>111</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>393</v>
+        <v>207</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>396</v>
+        <v>294</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>136</v>
+        <v>395</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>397</v>
+        <v>119</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>56</v>
+        <v>396</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>286</v>
+        <v>120</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>287</v>
+        <v>397</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>399</v>
+        <v>208</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>401</v>
+        <v>297</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>63</v>
+        <v>399</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>402</v>
+        <v>211</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>144</v>
+        <v>400</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>64</v>
+        <v>401</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>65</v>
+        <v>402</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
@@ -4366,37 +4364,37 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>404</v>
+        <v>213</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>405</v>
+        <v>298</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>220</v>
+        <v>405</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>146</v>
+        <v>407</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
@@ -4411,212 +4409,212 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>410</v>
+        <v>127</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>411</v>
+        <v>215</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>221</v>
+        <v>55</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>413</v>
+        <v>129</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>149</v>
+        <v>412</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>223</v>
+        <v>415</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>150</v>
+        <v>416</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>224</v>
+        <v>417</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>67</v>
+        <v>418</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>151</v>
+        <v>419</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>416</v>
+        <v>132</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>418</v>
+        <v>134</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>154</v>
+        <v>303</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>419</v>
+        <v>220</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>420</v>
+        <v>218</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>421</v>
+        <v>57</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>70</v>
+        <v>421</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>299</v>
+        <v>422</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>300</v>
+        <v>423</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>424</v>
+        <v>226</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>426</v>
+        <v>227</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>427</v>
+        <v>138</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>231</v>
+        <v>426</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>303</v>
+        <v>427</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>428</v>
+        <v>229</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>235</v>
+        <v>428</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
@@ -4626,7 +4624,7 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Treinamento.xlsx
+++ b/Treinamento.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/projeto2_cd/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C64AE04-C0C6-4E42-B647-32CD76573FD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="430">
   <si>
     <t>#bdsp .. pretendo ir na feira comer um pastel hoje...
 se não chover !!</t>
@@ -1400,15 +1394,12 @@
   <si>
     <t>sdds fazer pastel com o menino que eu gosto @schultergui</t>
   </si>
-  <si>
-    <t>Treinamento</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,19 +1462,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1525,7 +1508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1557,27 +1540,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1609,24 +1574,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1802,2828 +1749,4511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A563"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="237.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="B133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="B146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="B147" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="B148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="B149" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="B153" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="B154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="B155" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="B156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="B157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="B168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="B170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="B171" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="B173" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="B174" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="B176" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="B177" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B178" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="B179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="B181" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="B182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="B183" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="B184" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="B185" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="B186" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="B187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="B188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="B189" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="B190" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="B191" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="B192" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="B193" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="B194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="B195" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="B196" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="B197" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="B198" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="B199" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="B200" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="B201" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="B202" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="B203" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="B204" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="B205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="B206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="B207" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="B208" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="B209" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="B210" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="B211" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="B212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="B213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="B214" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="B215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="B216" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="B217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+      <c r="B218" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="B219" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="B220" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+      <c r="B221" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="B222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="B223" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="B224" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="B225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+      <c r="B226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+      <c r="B227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="B228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+      <c r="B229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="B231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+      <c r="B232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="B233" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+      <c r="B234" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="B235" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+      <c r="B236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+      <c r="B237" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+      <c r="B238" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+      <c r="B239" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+      <c r="B240" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+      <c r="B241" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+      <c r="B242" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+      <c r="B243" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="B244" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+      <c r="B245" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+      <c r="B246" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+      <c r="B247" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+      <c r="B248" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+      <c r="B249" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="B250" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+      <c r="B251" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+      <c r="B252" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+      <c r="B253" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+      <c r="B254" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+      <c r="B255" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+      <c r="B256" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+      <c r="B257" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+      <c r="B258" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+      <c r="B259" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+      <c r="B260" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+      <c r="B261" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+      <c r="B262" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+      <c r="B263" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+      <c r="B264" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+      <c r="B265" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+      <c r="B266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+      <c r="B267" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+      <c r="B268" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+      <c r="B269" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+      <c r="B270" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+      <c r="B271" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+      <c r="B272" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+      <c r="B273" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+      <c r="B274" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+      <c r="B275" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+      <c r="B276" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+      <c r="B277" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+      <c r="B278" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+      <c r="B279" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+      <c r="B280" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+      <c r="B281" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+      <c r="B282" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+      <c r="B283" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+      <c r="B284" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+      <c r="B285" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+      <c r="B286" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+      <c r="B287" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+      <c r="B288" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+      <c r="B289" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+      <c r="B290" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+      <c r="B291" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+      <c r="B292" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+      <c r="B293" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+      <c r="B294" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+      <c r="B295" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+      <c r="B296" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+      <c r="B297" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+      <c r="B298" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+      <c r="B299" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="B300" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+      <c r="B301" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+      <c r="B302" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+      <c r="B303" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+      <c r="B304" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+      <c r="B305" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+      <c r="B306" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+      <c r="B307" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+      <c r="B308" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>0</v>
+      </c>
+      <c r="B309" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>1</v>
+      </c>
+      <c r="B310" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>2</v>
+      </c>
+      <c r="B311" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>3</v>
+      </c>
+      <c r="B312" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>4</v>
+      </c>
+      <c r="B313" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>5</v>
+      </c>
+      <c r="B314" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>6</v>
+      </c>
+      <c r="B315" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>7</v>
+      </c>
+      <c r="B316" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>8</v>
+      </c>
+      <c r="B317" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>9</v>
+      </c>
+      <c r="B318" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>10</v>
+      </c>
+      <c r="B319" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>11</v>
+      </c>
+      <c r="B320" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>12</v>
+      </c>
+      <c r="B321" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>13</v>
+      </c>
+      <c r="B322" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>14</v>
+      </c>
+      <c r="B323" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>16</v>
+      </c>
+      <c r="B325" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>17</v>
+      </c>
+      <c r="B326" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>18</v>
+      </c>
+      <c r="B327" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>19</v>
+      </c>
+      <c r="B328" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>20</v>
+      </c>
+      <c r="B329" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>21</v>
+      </c>
+      <c r="B330" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>22</v>
+      </c>
+      <c r="B331" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>23</v>
+      </c>
+      <c r="B332" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>24</v>
+      </c>
+      <c r="B333" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>25</v>
+      </c>
+      <c r="B334" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>26</v>
+      </c>
+      <c r="B335" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>27</v>
+      </c>
+      <c r="B336" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>28</v>
+      </c>
+      <c r="B337" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>29</v>
+      </c>
+      <c r="B338" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>30</v>
+      </c>
+      <c r="B339" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>31</v>
+      </c>
+      <c r="B340" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>32</v>
+      </c>
+      <c r="B341" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>33</v>
+      </c>
+      <c r="B342" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>34</v>
+      </c>
+      <c r="B343" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>35</v>
+      </c>
+      <c r="B344" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>36</v>
+      </c>
+      <c r="B345" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>37</v>
+      </c>
+      <c r="B346" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>38</v>
+      </c>
+      <c r="B347" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>39</v>
+      </c>
+      <c r="B348" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>40</v>
+      </c>
+      <c r="B349" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>41</v>
+      </c>
+      <c r="B350" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>42</v>
+      </c>
+      <c r="B351" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>43</v>
+      </c>
+      <c r="B352" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>44</v>
+      </c>
+      <c r="B353" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>45</v>
+      </c>
+      <c r="B354" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>46</v>
+      </c>
+      <c r="B355" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>47</v>
+      </c>
+      <c r="B356" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>48</v>
+      </c>
+      <c r="B357" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>49</v>
+      </c>
+      <c r="B358" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>50</v>
+      </c>
+      <c r="B359" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>51</v>
+      </c>
+      <c r="B360" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>52</v>
+      </c>
+      <c r="B361" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>53</v>
+      </c>
+      <c r="B362" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>54</v>
+      </c>
+      <c r="B363" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>55</v>
+      </c>
+      <c r="B364" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>56</v>
+      </c>
+      <c r="B365" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>57</v>
+      </c>
+      <c r="B366" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>58</v>
+      </c>
+      <c r="B367" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>59</v>
+      </c>
+      <c r="B368" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>60</v>
+      </c>
+      <c r="B369" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>61</v>
+      </c>
+      <c r="B370" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>62</v>
+      </c>
+      <c r="B371" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>63</v>
+      </c>
+      <c r="B372" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>64</v>
+      </c>
+      <c r="B373" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>65</v>
+      </c>
+      <c r="B374" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>66</v>
+      </c>
+      <c r="B375" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>67</v>
+      </c>
+      <c r="B376" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>68</v>
+      </c>
+      <c r="B377" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>69</v>
+      </c>
+      <c r="B378" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>70</v>
+      </c>
+      <c r="B379" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>71</v>
+      </c>
+      <c r="B380" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>72</v>
+      </c>
+      <c r="B381" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>73</v>
+      </c>
+      <c r="B382" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>74</v>
+      </c>
+      <c r="B383" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>75</v>
+      </c>
+      <c r="B384" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>76</v>
+      </c>
+      <c r="B385" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>77</v>
+      </c>
+      <c r="B386" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>78</v>
+      </c>
+      <c r="B387" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>79</v>
+      </c>
+      <c r="B388" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>80</v>
+      </c>
+      <c r="B389" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>81</v>
+      </c>
+      <c r="B390" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>82</v>
+      </c>
+      <c r="B391" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>83</v>
+      </c>
+      <c r="B392" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>84</v>
+      </c>
+      <c r="B393" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>85</v>
+      </c>
+      <c r="B394" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>86</v>
+      </c>
+      <c r="B395" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>87</v>
+      </c>
+      <c r="B396" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>88</v>
+      </c>
+      <c r="B397" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>89</v>
+      </c>
+      <c r="B398" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>90</v>
+      </c>
+      <c r="B399" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>91</v>
+      </c>
+      <c r="B400" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>92</v>
+      </c>
+      <c r="B401" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>93</v>
+      </c>
+      <c r="B402" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>94</v>
+      </c>
+      <c r="B403" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>95</v>
+      </c>
+      <c r="B404" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>96</v>
+      </c>
+      <c r="B405" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>97</v>
+      </c>
+      <c r="B406" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>98</v>
+      </c>
+      <c r="B407" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>99</v>
+      </c>
+      <c r="B408" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>100</v>
+      </c>
+      <c r="B409" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
+        <v>101</v>
+      </c>
+      <c r="B410" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>102</v>
+      </c>
+      <c r="B411" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>103</v>
+      </c>
+      <c r="B412" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>104</v>
+      </c>
+      <c r="B413" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>105</v>
+      </c>
+      <c r="B414" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>106</v>
+      </c>
+      <c r="B415" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>107</v>
+      </c>
+      <c r="B416" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>108</v>
+      </c>
+      <c r="B417" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>109</v>
+      </c>
+      <c r="B418" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>110</v>
+      </c>
+      <c r="B419" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>111</v>
+      </c>
+      <c r="B420" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>112</v>
+      </c>
+      <c r="B421" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>113</v>
+      </c>
+      <c r="B422" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>114</v>
+      </c>
+      <c r="B423" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>115</v>
+      </c>
+      <c r="B424" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>116</v>
+      </c>
+      <c r="B425" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>117</v>
+      </c>
+      <c r="B426" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>118</v>
+      </c>
+      <c r="B427" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>119</v>
+      </c>
+      <c r="B428" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>120</v>
+      </c>
+      <c r="B429" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>121</v>
+      </c>
+      <c r="B430" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>122</v>
+      </c>
+      <c r="B431" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>123</v>
+      </c>
+      <c r="B432" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>124</v>
+      </c>
+      <c r="B433" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>125</v>
+      </c>
+      <c r="B434" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>126</v>
+      </c>
+      <c r="B435" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>127</v>
+      </c>
+      <c r="B436" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>128</v>
+      </c>
+      <c r="B437" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>129</v>
+      </c>
+      <c r="B438" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>130</v>
+      </c>
+      <c r="B439" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>131</v>
+      </c>
+      <c r="B440" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>132</v>
+      </c>
+      <c r="B441" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>133</v>
+      </c>
+      <c r="B442" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>134</v>
+      </c>
+      <c r="B443" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>135</v>
+      </c>
+      <c r="B444" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>136</v>
+      </c>
+      <c r="B445" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>137</v>
+      </c>
+      <c r="B446" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>138</v>
+      </c>
+      <c r="B447" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>139</v>
+      </c>
+      <c r="B448" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>140</v>
+      </c>
+      <c r="B449" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>141</v>
+      </c>
+      <c r="B450" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>142</v>
+      </c>
+      <c r="B451" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>143</v>
+      </c>
+      <c r="B452" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>144</v>
+      </c>
+      <c r="B453" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>145</v>
+      </c>
+      <c r="B454" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>146</v>
+      </c>
+      <c r="B455" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>147</v>
+      </c>
+      <c r="B456" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>148</v>
+      </c>
+      <c r="B457" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>149</v>
+      </c>
+      <c r="B458" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>150</v>
+      </c>
+      <c r="B459" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>151</v>
+      </c>
+      <c r="B460" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>152</v>
+      </c>
+      <c r="B461" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>153</v>
+      </c>
+      <c r="B462" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>154</v>
+      </c>
+      <c r="B463" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>155</v>
+      </c>
+      <c r="B464" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>156</v>
+      </c>
+      <c r="B465" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>157</v>
+      </c>
+      <c r="B466" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>158</v>
+      </c>
+      <c r="B467" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>159</v>
+      </c>
+      <c r="B468" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>160</v>
+      </c>
+      <c r="B469" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>161</v>
+      </c>
+      <c r="B470" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>162</v>
+      </c>
+      <c r="B471" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>163</v>
+      </c>
+      <c r="B472" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>164</v>
+      </c>
+      <c r="B473" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>165</v>
+      </c>
+      <c r="B474" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>166</v>
+      </c>
+      <c r="B475" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>167</v>
+      </c>
+      <c r="B476" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>168</v>
+      </c>
+      <c r="B477" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>169</v>
+      </c>
+      <c r="B478" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>170</v>
+      </c>
+      <c r="B479" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>171</v>
+      </c>
+      <c r="B480" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>172</v>
+      </c>
+      <c r="B481" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>173</v>
+      </c>
+      <c r="B482" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>174</v>
+      </c>
+      <c r="B483" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>175</v>
+      </c>
+      <c r="B484" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>176</v>
+      </c>
+      <c r="B485" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>177</v>
+      </c>
+      <c r="B486" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>178</v>
+      </c>
+      <c r="B487" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>179</v>
+      </c>
+      <c r="B488" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>180</v>
+      </c>
+      <c r="B489" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>181</v>
+      </c>
+      <c r="B490" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>182</v>
+      </c>
+      <c r="B491" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>183</v>
+      </c>
+      <c r="B492" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>184</v>
+      </c>
+      <c r="B493" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>185</v>
+      </c>
+      <c r="B494" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>186</v>
+      </c>
+      <c r="B495" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>187</v>
+      </c>
+      <c r="B496" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>188</v>
+      </c>
+      <c r="B497" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>189</v>
+      </c>
+      <c r="B498" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>190</v>
+      </c>
+      <c r="B499" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>191</v>
+      </c>
+      <c r="B500" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>192</v>
+      </c>
+      <c r="B501" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>193</v>
+      </c>
+      <c r="B502" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>194</v>
+      </c>
+      <c r="B503" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>195</v>
+      </c>
+      <c r="B504" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>196</v>
+      </c>
+      <c r="B505" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>197</v>
+      </c>
+      <c r="B506" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>198</v>
+      </c>
+      <c r="B507" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>199</v>
+      </c>
+      <c r="B508" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" t="s">
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>200</v>
+      </c>
+      <c r="B509" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>201</v>
+      </c>
+      <c r="B510" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" t="s">
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>202</v>
+      </c>
+      <c r="B511" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>203</v>
+      </c>
+      <c r="B512" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>204</v>
+      </c>
+      <c r="B513" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>205</v>
+      </c>
+      <c r="B514" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>206</v>
+      </c>
+      <c r="B515" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>207</v>
+      </c>
+      <c r="B516" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>208</v>
+      </c>
+      <c r="B517" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>209</v>
+      </c>
+      <c r="B518" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" t="s">
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>210</v>
+      </c>
+      <c r="B519" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>211</v>
+      </c>
+      <c r="B520" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" t="s">
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>212</v>
+      </c>
+      <c r="B521" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>213</v>
+      </c>
+      <c r="B522" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>214</v>
+      </c>
+      <c r="B523" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>215</v>
+      </c>
+      <c r="B524" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" t="s">
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>216</v>
+      </c>
+      <c r="B525" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" t="s">
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" t="s">
+      <c r="B526" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>218</v>
+      </c>
+      <c r="B527" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" t="s">
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>219</v>
+      </c>
+      <c r="B528" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A529" t="s">
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>220</v>
+      </c>
+      <c r="B529" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" t="s">
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>221</v>
+      </c>
+      <c r="B530" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A531" t="s">
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>222</v>
+      </c>
+      <c r="B531" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" t="s">
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>223</v>
+      </c>
+      <c r="B532" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" t="s">
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>224</v>
+      </c>
+      <c r="B533" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534" t="s">
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>225</v>
+      </c>
+      <c r="B534" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" t="s">
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>226</v>
+      </c>
+      <c r="B535" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" t="s">
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>227</v>
+      </c>
+      <c r="B536" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A537" t="s">
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>228</v>
+      </c>
+      <c r="B537" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A538" t="s">
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>229</v>
+      </c>
+      <c r="B538" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A539" t="s">
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>230</v>
+      </c>
+      <c r="B539" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540" t="s">
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>231</v>
+      </c>
+      <c r="B540" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>232</v>
+      </c>
+      <c r="B541" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A542" t="s">
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>233</v>
+      </c>
+      <c r="B542" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A543" t="s">
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>234</v>
+      </c>
+      <c r="B543" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A544" t="s">
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>235</v>
+      </c>
+      <c r="B544" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A545" t="s">
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>236</v>
+      </c>
+      <c r="B545" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546" t="s">
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>237</v>
+      </c>
+      <c r="B546" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A547" t="s">
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>238</v>
+      </c>
+      <c r="B547" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A548" t="s">
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>239</v>
+      </c>
+      <c r="B548" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A549" t="s">
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>240</v>
+      </c>
+      <c r="B549" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>241</v>
+      </c>
+      <c r="B550" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>242</v>
+      </c>
+      <c r="B551" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552" t="s">
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>243</v>
+      </c>
+      <c r="B552" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A553" t="s">
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>244</v>
+      </c>
+      <c r="B553" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A554" t="s">
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>245</v>
+      </c>
+      <c r="B554" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A555" t="s">
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>246</v>
+      </c>
+      <c r="B555" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A556" t="s">
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>247</v>
+      </c>
+      <c r="B556" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A557" t="s">
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>248</v>
+      </c>
+      <c r="B557" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A558" t="s">
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>249</v>
+      </c>
+      <c r="B558" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A559" t="s">
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>250</v>
+      </c>
+      <c r="B559" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A560" t="s">
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>251</v>
+      </c>
+      <c r="B560" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A561" t="s">
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>252</v>
+      </c>
+      <c r="B561" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A562" t="s">
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>253</v>
+      </c>
+      <c r="B562" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A563" t="s">
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>254</v>
+      </c>
+      <c r="B563" t="s">
         <v>306</v>
       </c>
     </row>
